--- a/guide.xlsx
+++ b/guide.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Code\00_Python\01_Hana Thuy\hanaVer1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5C0433-2DB9-4DF1-8797-B7AAB8440884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2354AEE-90C0-412C-8230-76EE49F031D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411EBE91-F677-4A92-B82F-36A6D50DB17E}"/>
   </bookViews>
   <sheets>
     <sheet name="BK  TINH TY LE PHAN TRAM EUR1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BK  TINH TY LE PHAN TRAM EUR1'!$A$22:$AR$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BK  TINH TY LE PHAN TRAM EUR1'!$A$1:$O$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BK  TINH TY LE PHAN TRAM EUR1'!$A$1:$Q$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>BẢNG KÊ KHAI HÀNG HÓA XUẤT KHẨU ĐẠT TIÊU CHÍ "TỶ LỆ % GIÁ TRỊ"</t>
   </si>
@@ -465,6 +466,51 @@
   </si>
   <si>
     <t xml:space="preserve">   (Ký, đóng dấu, ghi rõ họ, tên)</t>
+  </si>
+  <si>
+    <t>cif</t>
+  </si>
+  <si>
+    <t>file tc</t>
+  </si>
+  <si>
+    <t>lấy  đơn giá ( cột N) /  tỉ giá cột F( file BOM)</t>
+  </si>
+  <si>
+    <t>hai file kia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nếu cột điều kiện giá hóa đơn là </t>
+  </si>
+  <si>
+    <t>EXW * 1.02</t>
+  </si>
+  <si>
+    <t>FCA * 1.005</t>
+  </si>
+  <si>
+    <t>FOB * 1.005</t>
+  </si>
+  <si>
+    <t>lấy đơn giá nhân với tỉ số ở dưới</t>
+  </si>
+  <si>
+    <t>DAP * 0.99</t>
+  </si>
+  <si>
+    <t>CIF l*1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ở cột </t>
+  </si>
+  <si>
+    <t>Đơn giá USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lấy số lượng mã tờ khai </t>
+  </si>
+  <si>
+    <t>Tồn = P - G</t>
   </si>
 </sst>
 </file>
@@ -488,12 +534,19 @@
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??.0000_);_(@_)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,6 +751,13 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -905,480 +965,495 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="11" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="11" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="22" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2850,3886 +2925,3917 @@
   </sheetPr>
   <dimension ref="A1:AR77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13.77734375" style="165" customWidth="1"/>
-    <col min="3" max="3" width="34" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="166"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="19.21875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="11.88671875" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.77734375" style="109" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="110"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="23.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="11.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.399999999999999">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
     </row>
     <row r="2" spans="1:20" ht="16.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
     </row>
     <row r="3" spans="1:20" ht="16.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="13"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="33" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="17" t="s">
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="13"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="67.05" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="21" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="13"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="18">
-      <c r="A6" s="16"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="24" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="14">
         <v>850131</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="13"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="15.6">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="30" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="28">
+      <c r="L7" s="3"/>
+      <c r="M7" s="17">
         <f>+'[1]PL X EUR1'!C6</f>
         <v>809</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="P7" s="20"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="16.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35">
+      <c r="B8" s="147"/>
+      <c r="C8" s="148">
         <f>+'[1]PL X EUR1'!C8</f>
         <v>306274042930</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="151">
         <f>+'[1]PL X EUR1'!H8</f>
         <v>45367</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="30" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="39" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="30" t="s">
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="39" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="13"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="16.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="30" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="39" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="47"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="1:20" ht="16.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="30" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="39" t="s">
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="48"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="28"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="16.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="49" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="10" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="52"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:20" ht="16.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="49" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="10" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="48"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="28"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="16.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="49" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="40">
+      <c r="L14" s="30"/>
+      <c r="M14" s="24">
         <f>+'[1]PL X EUR1'!C7</f>
         <v>6318.29</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="48"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:20" ht="16.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="49" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="40">
+      <c r="L15" s="30"/>
+      <c r="M15" s="24">
         <f>M14-(S11+S13)</f>
         <v>6318.29</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="48"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:20" ht="16.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="49" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="28">
+      <c r="L16" s="37"/>
+      <c r="M16" s="17">
         <v>24530</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="48"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="59" t="s">
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="61" t="s">
+      <c r="M17" s="135"/>
+      <c r="N17" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="Q17" s="48"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="169" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="171" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="168"/>
     </row>
     <row r="19" spans="1:44" ht="15.6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="59" t="s">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="73"/>
-      <c r="Q19" s="48"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="168"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="59" t="s">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="61" t="s">
+      <c r="K20" s="141"/>
+      <c r="L20" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="59" t="s">
+      <c r="N20" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="59" t="s">
+      <c r="O20" s="126" t="s">
         <v>44</v>
       </c>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="168"/>
     </row>
     <row r="21" spans="1:44" ht="31.95" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="168"/>
     </row>
     <row r="22" spans="1:44" ht="15.6">
-      <c r="A22" s="79">
+      <c r="A22" s="38">
         <v>1</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="38">
         <v>2</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="39">
         <v>3</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="38">
         <v>4</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="38">
         <v>5</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="38">
         <v>6</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="42">
         <v>7</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="42">
         <v>8</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="42">
         <v>9</v>
       </c>
-      <c r="J22" s="82">
+      <c r="J22" s="40">
         <v>10</v>
       </c>
-      <c r="K22" s="81">
+      <c r="K22" s="42">
         <v>11</v>
       </c>
-      <c r="L22" s="82">
+      <c r="L22" s="40">
         <v>12</v>
       </c>
-      <c r="M22" s="81">
+      <c r="M22" s="42">
         <v>13</v>
       </c>
-      <c r="N22" s="81">
+      <c r="N22" s="42">
         <v>14</v>
       </c>
-      <c r="O22" s="81">
+      <c r="O22" s="42">
         <v>15</v>
       </c>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="168"/>
     </row>
     <row r="23" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A23" s="83">
+      <c r="A23" s="43">
         <v>1</v>
       </c>
-      <c r="B23" s="84" t="str">
+      <c r="B23" s="44" t="str">
         <f>+'[2]420017893 BK'!B2</f>
         <v>129901799KD</v>
       </c>
-      <c r="C23" s="85" t="str">
+      <c r="C23" s="45" t="str">
         <f>+'[2]420017893 BK'!K2</f>
         <v>Keo kết dính, dùng trong sx động cơ (Acrylic Adhesive),type:326, hiệu LOCTITE,tp chính Hydroxyethyl methacrylate  20-30%,  1kg/chai, năm sx 2023.CAS:868-77-9,7534-94-3,mới 100%</v>
       </c>
-      <c r="D23" s="86" t="str">
+      <c r="D23" s="46" t="str">
         <f>+'[2]420017893 BK'!J2</f>
         <v>350610</v>
       </c>
-      <c r="E23" s="87" t="str">
+      <c r="E23" s="47" t="str">
         <f>+'[2]420017893 BK'!O2</f>
         <v>MILLI-LITRES</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="48">
         <f>+'[2]420017893 BK'!C2</f>
         <v>0.27</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="49">
         <f t="shared" ref="G23:G58" si="0">F23*$M$7</f>
         <v>218.43</v>
       </c>
-      <c r="H23" s="90">
+      <c r="H23" s="50">
         <f>+'[2]420017893 BK'!P2</f>
         <v>0.11020000000000001</v>
       </c>
-      <c r="I23" s="91">
+      <c r="I23" s="51">
         <f>H23*F23*$M$7</f>
         <v>24.070986000000001</v>
       </c>
-      <c r="J23" s="92">
+      <c r="J23" s="52">
         <f>F23*$M$7*H23</f>
         <v>24.070986000000001</v>
       </c>
-      <c r="K23" s="93" t="str">
+      <c r="K23" s="53" t="str">
         <f>+'[2]420017893 BK'!N2</f>
         <v>CHINA</v>
       </c>
-      <c r="L23" s="94">
+      <c r="L23" s="54">
         <f>+'[2]420017893 BK'!S2</f>
         <v>105798549360</v>
       </c>
-      <c r="M23" s="95">
+      <c r="M23" s="55">
         <f>+'[2]420017893 BK'!T2</f>
         <v>45217</v>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-      <c r="AJ23" s="101"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="101"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="101"/>
-      <c r="AO23" s="101"/>
-      <c r="AP23" s="101"/>
-      <c r="AQ23" s="101"/>
-      <c r="AR23" s="101"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="61"/>
     </row>
     <row r="24" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A24" s="83">
+      <c r="A24" s="43">
         <v>2</v>
       </c>
-      <c r="B24" s="84" t="str">
+      <c r="B24" s="44" t="str">
         <f>+'[2]420017893 BK'!B3</f>
         <v>16201693A</v>
       </c>
-      <c r="C24" s="85" t="str">
+      <c r="C24" s="45" t="str">
         <f>+'[2]420017893 BK'!K3</f>
         <v>16201693A#&amp;Ổ đỡ trục rãnh sâu dùng hỗ trợ thân máy quay, giảm ma sát và đảm bảo độ chính xác, Phi 6*15*9, mới 100%</v>
       </c>
-      <c r="D24" s="86" t="str">
+      <c r="D24" s="46" t="str">
         <f>+'[2]420017893 BK'!J3</f>
         <v>848210</v>
       </c>
-      <c r="E24" s="87" t="str">
+      <c r="E24" s="47" t="str">
         <f>+'[2]420017893 BK'!O3</f>
         <v>PIECES</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="48">
         <f>+'[2]420017893 BK'!C3</f>
         <v>1</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="50">
         <f>+'[2]420017893 BK'!P3</f>
         <v>0.10349021999999999</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52">
         <f t="shared" ref="J24:J58" si="1">F24*$M$7*H24</f>
         <v>83.723587979999991</v>
       </c>
-      <c r="K24" s="93" t="str">
+      <c r="K24" s="53" t="str">
         <f>+'[2]420017893 BK'!N3</f>
         <v>CHINA</v>
       </c>
-      <c r="L24" s="94">
+      <c r="L24" s="54">
         <f>+'[2]420017893 BK'!S3</f>
         <v>106044790500</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="55">
         <f>+'[2]420017893 BK'!T3</f>
         <v>45315</v>
       </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="101"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
     </row>
     <row r="25" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A25" s="83">
+      <c r="A25" s="43">
         <v>3</v>
       </c>
-      <c r="B25" s="84" t="str">
+      <c r="B25" s="44" t="str">
         <f>+'[2]420017893 BK'!B4</f>
         <v>16201694A</v>
       </c>
-      <c r="C25" s="85" t="str">
+      <c r="C25" s="45" t="str">
         <f>+'[2]420017893 BK'!K4</f>
         <v>16201694A#&amp;Ổ đỡ trục rãnh sâu dùng hỗ trợ thân máy quay, giảm ma sát và đảm bảo độ chính xác, Phi 6*15*5.5, mới 100%</v>
       </c>
-      <c r="D25" s="86" t="str">
+      <c r="D25" s="46" t="str">
         <f>+'[2]420017893 BK'!J4</f>
         <v>848210</v>
       </c>
-      <c r="E25" s="87" t="str">
+      <c r="E25" s="47" t="str">
         <f>+'[2]420017893 BK'!O4</f>
         <v>PIECES</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="48">
         <f>+'[2]420017893 BK'!C4</f>
         <v>1</v>
       </c>
-      <c r="G25" s="89">
+      <c r="G25" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="50">
         <f>+'[2]420017893 BK'!P4</f>
         <v>8.7148799999999998E-2</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52">
         <f t="shared" si="1"/>
         <v>70.503379199999998</v>
       </c>
-      <c r="K25" s="93" t="str">
+      <c r="K25" s="53" t="str">
         <f>+'[2]420017893 BK'!N4</f>
         <v>CHINA</v>
       </c>
-      <c r="L25" s="94">
+      <c r="L25" s="54">
         <f>+'[2]420017893 BK'!S4</f>
         <v>105998571230</v>
       </c>
-      <c r="M25" s="95">
+      <c r="M25" s="55">
         <f>+'[2]420017893 BK'!T4</f>
         <v>45294</v>
       </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="101"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="101"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="101"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="61"/>
     </row>
     <row r="26" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A26" s="83">
+      <c r="A26" s="43">
         <v>4</v>
       </c>
-      <c r="B26" s="84" t="str">
+      <c r="B26" s="44" t="str">
         <f>+'[2]420017893 BK'!B5</f>
         <v>16232304BKD</v>
       </c>
-      <c r="C26" s="85" t="str">
+      <c r="C26" s="45" t="str">
         <f>+'[2]420017893 BK'!K5</f>
         <v>4502314940-V151 16232304B VÁCH NGĂN CARTON\n400*80</v>
       </c>
-      <c r="D26" s="86" t="str">
+      <c r="D26" s="46" t="str">
         <f>+'[2]420017893 BK'!J5</f>
         <v>482390</v>
       </c>
-      <c r="E26" s="87" t="str">
+      <c r="E26" s="47" t="str">
         <f>+'[2]420017893 BK'!O5</f>
         <v>Cái</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="48">
         <f>+'[2]420017893 BK'!C5</f>
         <v>0.27009085933223898</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="49">
         <f t="shared" si="0"/>
         <v>218.50350519978133</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="50">
         <f>+'[2]420017893 BK'!P5</f>
         <v>2.4052181002853699E-2</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52">
         <f t="shared" si="1"/>
         <v>5.2554858568231246</v>
       </c>
-      <c r="K26" s="93" t="str">
+      <c r="K26" s="53" t="str">
         <f>+'[2]420017893 BK'!N5</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L26" s="94" t="str">
+      <c r="L26" s="54" t="str">
         <f>+'[2]420017893 BK'!S5</f>
         <v>HĐ:6697</v>
       </c>
-      <c r="M26" s="95">
+      <c r="M26" s="55">
         <f>+'[2]420017893 BK'!T5</f>
         <v>45321</v>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="101"/>
-      <c r="AO26" s="101"/>
-      <c r="AP26" s="101"/>
-      <c r="AQ26" s="101"/>
-      <c r="AR26" s="101"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="61"/>
     </row>
     <row r="27" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A27" s="83">
+      <c r="A27" s="43">
         <v>5</v>
       </c>
-      <c r="B27" s="84" t="str">
+      <c r="B27" s="44" t="str">
         <f>+'[2]420017893 BK'!B6</f>
         <v>16232312BKD</v>
       </c>
-      <c r="C27" s="85" t="str">
+      <c r="C27" s="45" t="str">
         <f>+'[2]420017893 BK'!K6</f>
         <v>4502329257-V151 16232312B VÁCH NGĂN CARTON\n355*80</v>
       </c>
-      <c r="D27" s="86" t="str">
+      <c r="D27" s="46" t="str">
         <f>+'[2]420017893 BK'!J6</f>
         <v>482390</v>
       </c>
-      <c r="E27" s="87" t="str">
+      <c r="E27" s="47" t="str">
         <f>+'[2]420017893 BK'!O6</f>
         <v>Cái</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="48">
         <f>+'[2]420017893 BK'!C6</f>
         <v>0.400470169677066</v>
       </c>
-      <c r="G27" s="89">
+      <c r="G27" s="49">
         <f t="shared" si="0"/>
         <v>323.98036726874642</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="50">
         <f>+'[2]420017893 BK'!P6</f>
         <v>2.1361598043212401E-2</v>
       </c>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92">
+      <c r="I27" s="51"/>
+      <c r="J27" s="52">
         <f t="shared" si="1"/>
         <v>6.9207383794872888</v>
       </c>
-      <c r="K27" s="93" t="str">
+      <c r="K27" s="53" t="str">
         <f>+'[2]420017893 BK'!N6</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L27" s="94" t="str">
+      <c r="L27" s="54" t="str">
         <f>+'[2]420017893 BK'!S6</f>
         <v>HĐ:6697</v>
       </c>
-      <c r="M27" s="95">
+      <c r="M27" s="55">
         <f>+'[2]420017893 BK'!T6</f>
         <v>45321</v>
       </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="101"/>
-      <c r="AQ27" s="101"/>
-      <c r="AR27" s="101"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
     </row>
     <row r="28" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A28" s="83">
+      <c r="A28" s="43">
         <v>6</v>
       </c>
-      <c r="B28" s="84" t="str">
+      <c r="B28" s="44" t="str">
         <f>+'[2]420017893 BK'!B7</f>
         <v>16232326BKD</v>
       </c>
-      <c r="C28" s="85" t="str">
+      <c r="C28" s="45" t="str">
         <f>+'[2]420017893 BK'!K7</f>
         <v>4502329257-V151 16232326B TẤM LÓT CARTON\n400*355</v>
       </c>
-      <c r="D28" s="86" t="str">
+      <c r="D28" s="46" t="str">
         <f>+'[2]420017893 BK'!J7</f>
         <v>480810</v>
       </c>
-      <c r="E28" s="87" t="str">
+      <c r="E28" s="47" t="str">
         <f>+'[2]420017893 BK'!O7</f>
         <v>Cái</v>
       </c>
-      <c r="F28" s="88">
+      <c r="F28" s="48">
         <f>+'[2]420017893 BK'!C7</f>
         <v>6.7750957854406102E-2</v>
       </c>
-      <c r="G28" s="89">
+      <c r="G28" s="49">
         <f t="shared" si="0"/>
         <v>54.810524904214539</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="50">
         <f>+'[2]420017893 BK'!P7</f>
         <v>0.120179372197309</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92">
+      <c r="I28" s="51"/>
+      <c r="J28" s="52">
         <f t="shared" si="1"/>
         <v>6.5870944727934733</v>
       </c>
-      <c r="K28" s="93" t="str">
+      <c r="K28" s="53" t="str">
         <f>+'[2]420017893 BK'!N7</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L28" s="94" t="str">
+      <c r="L28" s="54" t="str">
         <f>+'[2]420017893 BK'!S7</f>
         <v>HĐ:6697</v>
       </c>
-      <c r="M28" s="95">
+      <c r="M28" s="55">
         <f>+'[2]420017893 BK'!T7</f>
         <v>45321</v>
       </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="101"/>
-      <c r="AQ28" s="101"/>
-      <c r="AR28" s="101"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
     </row>
     <row r="29" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A29" s="83">
+      <c r="A29" s="43">
         <v>7</v>
       </c>
-      <c r="B29" s="84" t="str">
+      <c r="B29" s="44" t="str">
         <f>+'[2]420017893 BK'!B8</f>
         <v>16232335AKD</v>
       </c>
-      <c r="C29" s="85" t="str">
+      <c r="C29" s="45" t="str">
         <f>+'[2]420017893 BK'!K8</f>
         <v>4502329257-V151 16232335A THÙNG CARTON\n413*368*185</v>
       </c>
-      <c r="D29" s="86" t="str">
+      <c r="D29" s="46" t="str">
         <f>+'[2]420017893 BK'!J8</f>
         <v>481910</v>
       </c>
-      <c r="E29" s="87" t="str">
+      <c r="E29" s="47" t="str">
         <f>+'[2]420017893 BK'!O8</f>
         <v>Cái</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="48">
         <f>+'[2]420017893 BK'!C8</f>
         <v>3.4119868637110001E-2</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="49">
         <f t="shared" si="0"/>
         <v>27.60297372742199</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="50">
         <f>+'[2]420017893 BK'!P8</f>
         <v>0.67048512026090501</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92">
+      <c r="I29" s="51"/>
+      <c r="J29" s="52">
         <f t="shared" si="1"/>
         <v>18.507383159189136</v>
       </c>
-      <c r="K29" s="93" t="str">
+      <c r="K29" s="53" t="str">
         <f>+'[2]420017893 BK'!N8</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L29" s="94" t="str">
+      <c r="L29" s="54" t="str">
         <f>+'[2]420017893 BK'!S8</f>
         <v>HĐ:6697</v>
       </c>
-      <c r="M29" s="95">
+      <c r="M29" s="55">
         <f>+'[2]420017893 BK'!T8</f>
         <v>45321</v>
       </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="101"/>
-      <c r="AQ29" s="101"/>
-      <c r="AR29" s="101"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
     </row>
     <row r="30" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A30" s="83">
+      <c r="A30" s="43">
         <v>8</v>
       </c>
-      <c r="B30" s="84" t="str">
+      <c r="B30" s="44" t="str">
         <f>+'[2]420017893 BK'!B9</f>
         <v>169900231KD</v>
       </c>
-      <c r="C30" s="85" t="str">
+      <c r="C30" s="45" t="str">
         <f>+'[2]420017893 BK'!K9</f>
         <v>Chất trợ hàn TLF-800M 169900231 (PO:
 6600032826)</v>
       </c>
-      <c r="D30" s="86" t="str">
+      <c r="D30" s="46" t="str">
         <f>+'[2]420017893 BK'!J9</f>
         <v>381090</v>
       </c>
-      <c r="E30" s="87" t="str">
+      <c r="E30" s="47" t="str">
         <f>+'[2]420017893 BK'!O9</f>
         <v>Mi li lít</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="48">
         <f>+'[2]420017893 BK'!C9</f>
         <v>0.1</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G30" s="49">
         <f t="shared" si="0"/>
         <v>80.900000000000006</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="50">
         <f>+'[2]420017893 BK'!P9</f>
         <v>3.50591035392196E-3</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92">
+      <c r="I30" s="51"/>
+      <c r="J30" s="52">
         <f t="shared" si="1"/>
         <v>0.28362814763228661</v>
       </c>
-      <c r="K30" s="93" t="str">
+      <c r="K30" s="53" t="str">
         <f>+'[2]420017893 BK'!N9</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L30" s="94" t="str">
+      <c r="L30" s="54" t="str">
         <f>+'[2]420017893 BK'!S9</f>
         <v>HĐ:15</v>
       </c>
-      <c r="M30" s="95">
+      <c r="M30" s="55">
         <f>+'[2]420017893 BK'!T9</f>
         <v>44938</v>
       </c>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="101"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="101"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="101"/>
-      <c r="AO30" s="101"/>
-      <c r="AP30" s="101"/>
-      <c r="AQ30" s="101"/>
-      <c r="AR30" s="101"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="61"/>
+      <c r="AO30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
+      <c r="AR30" s="61"/>
     </row>
     <row r="31" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A31" s="83">
+      <c r="A31" s="43">
         <v>9</v>
       </c>
-      <c r="B31" s="84" t="str">
+      <c r="B31" s="44" t="str">
         <f>+'[2]420017893 BK'!B10</f>
         <v>169900232KD</v>
       </c>
-      <c r="C31" s="85" t="str">
+      <c r="C31" s="45" t="str">
         <f>+'[2]420017893 BK'!K10</f>
         <v>Keo epoxy, dùng cố định rotor trong dây chuyền sản xuất động cơ điện (Epoxy balance compound B),2.1KG/hộp type E-852, hiệu YISIER,CAS:25085-99-8.471-34-1, mới 100%</v>
       </c>
-      <c r="D31" s="86" t="str">
+      <c r="D31" s="46" t="str">
         <f>+'[2]420017893 BK'!J10</f>
         <v>350691</v>
       </c>
-      <c r="E31" s="87" t="str">
+      <c r="E31" s="47" t="str">
         <f>+'[2]420017893 BK'!O10</f>
         <v>GRAMMES</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="48">
         <f>+'[2]420017893 BK'!C10</f>
         <v>0.49151614668855997</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="49">
         <f t="shared" si="0"/>
         <v>397.636562671045</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="50">
         <f>+'[2]420017893 BK'!P10</f>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92">
+      <c r="I31" s="51"/>
+      <c r="J31" s="52">
         <f t="shared" si="1"/>
         <v>3.7377836891078231</v>
       </c>
-      <c r="K31" s="93" t="str">
+      <c r="K31" s="53" t="str">
         <f>+'[2]420017893 BK'!N10</f>
         <v>CHINA</v>
       </c>
-      <c r="L31" s="94">
+      <c r="L31" s="54">
         <f>+'[2]420017893 BK'!S10</f>
         <v>106027973551</v>
       </c>
-      <c r="M31" s="95">
+      <c r="M31" s="55">
         <f>+'[2]420017893 BK'!T10</f>
         <v>45308</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="101"/>
-      <c r="AF31" s="101"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="101"/>
-      <c r="AJ31" s="101"/>
-      <c r="AK31" s="101"/>
-      <c r="AL31" s="101"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="101"/>
-      <c r="AO31" s="101"/>
-      <c r="AP31" s="101"/>
-      <c r="AQ31" s="101"/>
-      <c r="AR31" s="101"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="61"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
     </row>
     <row r="32" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A32" s="83">
+      <c r="A32" s="43">
         <v>10</v>
       </c>
-      <c r="B32" s="84" t="str">
+      <c r="B32" s="44" t="str">
         <f>+'[2]420017893 BK'!B11</f>
         <v>169900471KD</v>
       </c>
-      <c r="C32" s="85" t="str">
+      <c r="C32" s="45" t="str">
         <f>+'[2]420017893 BK'!K11</f>
         <v>Dây hàn không chì được phủ bằng thiếc, bọc và có
 lõi kim loại dùng để hàn chảy 169900471 (PO:
 6600032826)</v>
       </c>
-      <c r="D32" s="86" t="str">
+      <c r="D32" s="46" t="str">
         <f>+'[2]420017893 BK'!J11</f>
         <v>831130</v>
       </c>
-      <c r="E32" s="87" t="str">
+      <c r="E32" s="47" t="str">
         <f>+'[2]420017893 BK'!O11</f>
         <v>Gam</v>
       </c>
-      <c r="F32" s="88">
+      <c r="F32" s="48">
         <f>+'[2]420017893 BK'!C11</f>
         <v>0.5</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="49">
         <f t="shared" si="0"/>
         <v>404.5</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="50">
         <f>+'[2]420017893 BK'!P11</f>
         <v>3.05340399510803E-2</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92">
+      <c r="I32" s="51"/>
+      <c r="J32" s="52">
         <f t="shared" si="1"/>
         <v>12.351019160211981</v>
       </c>
-      <c r="K32" s="93" t="str">
+      <c r="K32" s="53" t="str">
         <f>+'[2]420017893 BK'!N11</f>
         <v>MUA VIỆT NAM KHÔNG XÁC ĐỊNH XUẤT XỨ</v>
       </c>
-      <c r="L32" s="94" t="str">
+      <c r="L32" s="54" t="str">
         <f>+'[2]420017893 BK'!S11</f>
         <v>HĐ:15</v>
       </c>
-      <c r="M32" s="95">
+      <c r="M32" s="55">
         <f>+'[2]420017893 BK'!T11</f>
         <v>44938</v>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="101"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="101"/>
-      <c r="AK32" s="101"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="101"/>
-      <c r="AO32" s="101"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="101"/>
-      <c r="AR32" s="101"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
     </row>
     <row r="33" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A33" s="83">
+      <c r="A33" s="43">
         <v>11</v>
       </c>
-      <c r="B33" s="84" t="str">
+      <c r="B33" s="44" t="str">
         <f>+'[2]420017893 BK'!B12</f>
         <v>122205353</v>
       </c>
-      <c r="C33" s="85" t="str">
+      <c r="C33" s="45" t="str">
         <f>+'[2]420017893 BK'!K12</f>
         <v>122205353#&amp;Ống nhựa dùng để bảo vệ cáp điện dạng mềm, nhựa polyolefin 100%, Phi 3mm, mới 100%</v>
       </c>
-      <c r="D33" s="86" t="str">
+      <c r="D33" s="46" t="str">
         <f>+'[2]420017893 BK'!J12</f>
         <v>391732</v>
       </c>
-      <c r="E33" s="87" t="str">
+      <c r="E33" s="47" t="str">
         <f>+'[2]420017893 BK'!O12</f>
         <v>METRES</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="48">
         <f>+'[2]420017893 BK'!C12</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="49">
         <f t="shared" si="0"/>
         <v>56.63</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="50">
         <f>+'[2]420017893 BK'!P12</f>
         <v>3.890076E-2</v>
       </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92">
+      <c r="I33" s="51"/>
+      <c r="J33" s="52">
         <f t="shared" si="1"/>
         <v>2.2029500388000001</v>
       </c>
-      <c r="K33" s="93" t="str">
+      <c r="K33" s="53" t="str">
         <f>+'[2]420017893 BK'!N12</f>
         <v>CHINA</v>
       </c>
-      <c r="L33" s="94">
+      <c r="L33" s="54">
         <f>+'[2]420017893 BK'!S12</f>
         <v>105998563160</v>
       </c>
-      <c r="M33" s="95">
+      <c r="M33" s="55">
         <f>+'[2]420017893 BK'!T12</f>
         <v>45294</v>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="101"/>
-      <c r="AF33" s="101"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="101"/>
-      <c r="AO33" s="101"/>
-      <c r="AP33" s="101"/>
-      <c r="AQ33" s="101"/>
-      <c r="AR33" s="101"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
     </row>
     <row r="34" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A34" s="83">
+      <c r="A34" s="43">
         <v>12</v>
       </c>
-      <c r="B34" s="84" t="str">
+      <c r="B34" s="44" t="str">
         <f>+'[2]420017893 BK'!B13</f>
         <v>122205308</v>
       </c>
-      <c r="C34" s="85" t="str">
+      <c r="C34" s="45" t="str">
         <f>+'[2]420017893 BK'!K13</f>
         <v>122205308#&amp;Vỏ nhựa (Tay áo nhựa) dùng để bảo vệ cáp điện, Phi 7, PE100%, Loại: Đường kính: 7mm, mới 100%</v>
       </c>
-      <c r="D34" s="86" t="str">
+      <c r="D34" s="46" t="str">
         <f>+'[2]420017893 BK'!J13</f>
         <v>391721</v>
       </c>
-      <c r="E34" s="87" t="str">
+      <c r="E34" s="47" t="str">
         <f>+'[2]420017893 BK'!O13</f>
         <v>METRES</v>
       </c>
-      <c r="F34" s="88">
+      <c r="F34" s="48">
         <f>+'[2]420017893 BK'!C13</f>
         <v>0.02</v>
       </c>
-      <c r="G34" s="89">
+      <c r="G34" s="49">
         <f t="shared" si="0"/>
         <v>16.18</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="50">
         <f>+'[2]420017893 BK'!P13</f>
         <v>7.6449000000000003E-2</v>
       </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92">
+      <c r="I34" s="51"/>
+      <c r="J34" s="52">
         <f t="shared" si="1"/>
         <v>1.2369448199999999</v>
       </c>
-      <c r="K34" s="93" t="str">
+      <c r="K34" s="53" t="str">
         <f>+'[2]420017893 BK'!N13</f>
         <v>CHINA</v>
       </c>
-      <c r="L34" s="94">
+      <c r="L34" s="54">
         <f>+'[2]420017893 BK'!S13</f>
         <v>105998563160</v>
       </c>
-      <c r="M34" s="95">
+      <c r="M34" s="55">
         <f>+'[2]420017893 BK'!T13</f>
         <v>45294</v>
       </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="101"/>
-      <c r="AE34" s="101"/>
-      <c r="AF34" s="101"/>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="101"/>
-      <c r="AO34" s="101"/>
-      <c r="AP34" s="101"/>
-      <c r="AQ34" s="101"/>
-      <c r="AR34" s="101"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
     </row>
     <row r="35" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A35" s="83">
+      <c r="A35" s="43">
         <v>13</v>
       </c>
-      <c r="B35" s="84" t="str">
+      <c r="B35" s="44" t="str">
         <f>+'[2]420017893 BK'!B14</f>
         <v>122004125</v>
       </c>
-      <c r="C35" s="85" t="str">
+      <c r="C35" s="45" t="str">
         <f>+'[2]420017893 BK'!K14</f>
         <v>122004125#&amp;Dải đồng dạng cuộn dùng dẫn điện trong phần stator, mới 100%.</v>
       </c>
-      <c r="D35" s="86" t="str">
+      <c r="D35" s="46" t="str">
         <f>+'[2]420017893 BK'!J14</f>
         <v>740921</v>
       </c>
-      <c r="E35" s="87" t="str">
+      <c r="E35" s="47" t="str">
         <f>+'[2]420017893 BK'!O14</f>
         <v>METRES</v>
       </c>
-      <c r="F35" s="88">
+      <c r="F35" s="48">
         <f>+'[2]420017893 BK'!C14</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G35" s="89">
+      <c r="G35" s="49">
         <f t="shared" si="0"/>
         <v>26.697000000000003</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="50">
         <f>+'[2]420017893 BK'!P14</f>
         <v>0.28097124000000001</v>
       </c>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92">
+      <c r="I35" s="51"/>
+      <c r="J35" s="52">
         <f t="shared" si="1"/>
         <v>7.5010891942800013</v>
       </c>
-      <c r="K35" s="93" t="str">
+      <c r="K35" s="53" t="str">
         <f>+'[2]420017893 BK'!N14</f>
         <v>CHINA</v>
       </c>
-      <c r="L35" s="94">
+      <c r="L35" s="54">
         <f>+'[2]420017893 BK'!S14</f>
         <v>106000636710</v>
       </c>
-      <c r="M35" s="95">
+      <c r="M35" s="55">
         <f>+'[2]420017893 BK'!T14</f>
         <v>45294</v>
       </c>
-      <c r="N35" s="96"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="101"/>
-      <c r="AE35" s="101"/>
-      <c r="AF35" s="101"/>
-      <c r="AG35" s="101"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="101"/>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="101"/>
-      <c r="AO35" s="101"/>
-      <c r="AP35" s="101"/>
-      <c r="AQ35" s="101"/>
-      <c r="AR35" s="101"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
     </row>
     <row r="36" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A36" s="83">
+      <c r="A36" s="43">
         <v>14</v>
       </c>
-      <c r="B36" s="84" t="str">
+      <c r="B36" s="44" t="str">
         <f>+'[2]420017893 BK'!B15</f>
         <v>122205311</v>
       </c>
-      <c r="C36" s="85" t="str">
+      <c r="C36" s="45" t="str">
         <f>+'[2]420017893 BK'!K15</f>
         <v>122205311#&amp;Vỏ nhựa (Tay áo nhựa) dùng để bảo vệ cáp điện, Phi 4.5, PE100%, Loại: Đường kính: 4.5mm, mới 100%</v>
       </c>
-      <c r="D36" s="86" t="str">
+      <c r="D36" s="46" t="str">
         <f>+'[2]420017893 BK'!J15</f>
         <v>391721</v>
       </c>
-      <c r="E36" s="87" t="str">
+      <c r="E36" s="47" t="str">
         <f>+'[2]420017893 BK'!O15</f>
         <v>METRES</v>
       </c>
-      <c r="F36" s="88">
+      <c r="F36" s="48">
         <f>+'[2]420017893 BK'!C15</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="89">
+      <c r="G36" s="49">
         <f t="shared" si="0"/>
         <v>40.450000000000003</v>
       </c>
-      <c r="H36" s="90">
+      <c r="H36" s="50">
         <f>+'[2]420017893 BK'!P15</f>
         <v>5.9017199999999999E-2</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92">
+      <c r="I36" s="51"/>
+      <c r="J36" s="52">
         <f t="shared" si="1"/>
         <v>2.38724574</v>
       </c>
-      <c r="K36" s="93" t="str">
+      <c r="K36" s="53" t="str">
         <f>+'[2]420017893 BK'!N15</f>
         <v>CHINA</v>
       </c>
-      <c r="L36" s="94">
+      <c r="L36" s="54">
         <f>+'[2]420017893 BK'!S15</f>
         <v>105998563160</v>
       </c>
-      <c r="M36" s="95">
+      <c r="M36" s="55">
         <f>+'[2]420017893 BK'!T15</f>
         <v>45294</v>
       </c>
-      <c r="N36" s="96"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="101"/>
-      <c r="AE36" s="101"/>
-      <c r="AF36" s="101"/>
-      <c r="AG36" s="101"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="101"/>
-      <c r="AJ36" s="101"/>
-      <c r="AK36" s="101"/>
-      <c r="AL36" s="101"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="101"/>
-      <c r="AO36" s="101"/>
-      <c r="AP36" s="101"/>
-      <c r="AQ36" s="101"/>
-      <c r="AR36" s="101"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
     </row>
     <row r="37" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A37" s="83">
+      <c r="A37" s="43">
         <v>15</v>
       </c>
-      <c r="B37" s="84" t="str">
+      <c r="B37" s="44" t="str">
         <f>+'[2]420017893 BK'!B16</f>
         <v>122205309</v>
       </c>
-      <c r="C37" s="85" t="str">
+      <c r="C37" s="45" t="str">
         <f>+'[2]420017893 BK'!K16</f>
         <v>122205309#&amp;Vỏ nhựa (Tay áo nhựa) dùng để bảo vệ cáp điện, Phi 4.5, PE100%, Loại: Đường kính: 4.5mm, mới 100%</v>
       </c>
-      <c r="D37" s="86" t="str">
+      <c r="D37" s="46" t="str">
         <f>+'[2]420017893 BK'!J16</f>
         <v>391721</v>
       </c>
-      <c r="E37" s="87" t="str">
+      <c r="E37" s="47" t="str">
         <f>+'[2]420017893 BK'!O16</f>
         <v>METRES</v>
       </c>
-      <c r="F37" s="88">
+      <c r="F37" s="48">
         <f>+'[2]420017893 BK'!C16</f>
         <v>0.05</v>
       </c>
-      <c r="G37" s="89">
+      <c r="G37" s="49">
         <f t="shared" si="0"/>
         <v>40.450000000000003</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="50">
         <f>+'[2]420017893 BK'!P16</f>
         <v>5.3651999999999998E-2</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92">
+      <c r="I37" s="51"/>
+      <c r="J37" s="52">
         <f t="shared" si="1"/>
         <v>2.1702234000000002</v>
       </c>
-      <c r="K37" s="93" t="str">
+      <c r="K37" s="53" t="str">
         <f>+'[2]420017893 BK'!N16</f>
         <v>CHINA</v>
       </c>
-      <c r="L37" s="94">
+      <c r="L37" s="54">
         <f>+'[2]420017893 BK'!S16</f>
         <v>105998563160</v>
       </c>
-      <c r="M37" s="95">
+      <c r="M37" s="55">
         <f>+'[2]420017893 BK'!T16</f>
         <v>45294</v>
       </c>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="101"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="101"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="101"/>
-      <c r="AP37" s="101"/>
-      <c r="AQ37" s="101"/>
-      <c r="AR37" s="101"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
     </row>
     <row r="38" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A38" s="83">
+      <c r="A38" s="43">
         <v>16</v>
       </c>
-      <c r="B38" s="84" t="str">
+      <c r="B38" s="44" t="str">
         <f>+'[2]420017893 BK'!B17</f>
         <v>122205310</v>
       </c>
-      <c r="C38" s="85" t="str">
+      <c r="C38" s="45" t="str">
         <f>+'[2]420017893 BK'!K17</f>
         <v>122205310#&amp;Vỏ nhựa (Tay áo nhựa) dùng để bảo vệ cáp điện, Phi 4.5, PE100%, Loại: Đường kính: 4.5mm, mới 100%</v>
       </c>
-      <c r="D38" s="86" t="str">
+      <c r="D38" s="46" t="str">
         <f>+'[2]420017893 BK'!J17</f>
         <v>391721</v>
       </c>
-      <c r="E38" s="87" t="str">
+      <c r="E38" s="47" t="str">
         <f>+'[2]420017893 BK'!O17</f>
         <v>METRES</v>
       </c>
-      <c r="F38" s="88">
+      <c r="F38" s="48">
         <f>+'[2]420017893 BK'!C17</f>
         <v>0.05</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="49">
         <f t="shared" si="0"/>
         <v>40.450000000000003</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="50">
         <f>+'[2]420017893 BK'!P17</f>
         <v>5.9006999999999997E-2</v>
       </c>
-      <c r="I38" s="91"/>
-      <c r="J38" s="92">
+      <c r="I38" s="51"/>
+      <c r="J38" s="52">
         <f t="shared" si="1"/>
         <v>2.3868331500000002</v>
       </c>
-      <c r="K38" s="93" t="str">
+      <c r="K38" s="53" t="str">
         <f>+'[2]420017893 BK'!N17</f>
         <v>CHINA</v>
       </c>
-      <c r="L38" s="94">
+      <c r="L38" s="54">
         <f>+'[2]420017893 BK'!S17</f>
         <v>105998563160</v>
       </c>
-      <c r="M38" s="95">
+      <c r="M38" s="55">
         <f>+'[2]420017893 BK'!T17</f>
         <v>45294</v>
       </c>
-      <c r="N38" s="96"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="101"/>
-      <c r="AE38" s="101"/>
-      <c r="AF38" s="101"/>
-      <c r="AG38" s="101"/>
-      <c r="AH38" s="101"/>
-      <c r="AI38" s="101"/>
-      <c r="AJ38" s="101"/>
-      <c r="AK38" s="101"/>
-      <c r="AL38" s="101"/>
-      <c r="AM38" s="101"/>
-      <c r="AN38" s="101"/>
-      <c r="AO38" s="101"/>
-      <c r="AP38" s="101"/>
-      <c r="AQ38" s="101"/>
-      <c r="AR38" s="101"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
     </row>
     <row r="39" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A39" s="83">
+      <c r="A39" s="43">
         <v>17</v>
       </c>
-      <c r="B39" s="84" t="str">
+      <c r="B39" s="44" t="str">
         <f>+'[2]420017893 BK'!B18</f>
         <v>122205354</v>
       </c>
-      <c r="C39" s="85" t="str">
+      <c r="C39" s="45" t="str">
         <f>+'[2]420017893 BK'!K18</f>
         <v>122205354#&amp;Ống nhựa dùng để bảo vệ cáp điện dạng mềm, nhựa polyolefin 100%, Phi 3mm, mới 100%</v>
       </c>
-      <c r="D39" s="86" t="str">
+      <c r="D39" s="46" t="str">
         <f>+'[2]420017893 BK'!J18</f>
         <v>391732</v>
       </c>
-      <c r="E39" s="87" t="str">
+      <c r="E39" s="47" t="str">
         <f>+'[2]420017893 BK'!O18</f>
         <v>METRES</v>
       </c>
-      <c r="F39" s="88">
+      <c r="F39" s="48">
         <f>+'[2]420017893 BK'!C18</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G39" s="89">
+      <c r="G39" s="49">
         <f t="shared" si="0"/>
         <v>56.63</v>
       </c>
-      <c r="H39" s="90">
+      <c r="H39" s="50">
         <f>+'[2]420017893 BK'!P18</f>
         <v>4.1590500000000002E-2</v>
       </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="92">
+      <c r="I39" s="51"/>
+      <c r="J39" s="52">
         <f t="shared" si="1"/>
         <v>2.3552700150000003</v>
       </c>
-      <c r="K39" s="93" t="str">
+      <c r="K39" s="53" t="str">
         <f>+'[2]420017893 BK'!N18</f>
         <v>CHINA</v>
       </c>
-      <c r="L39" s="94">
+      <c r="L39" s="54">
         <f>+'[2]420017893 BK'!S18</f>
         <v>105998563160</v>
       </c>
-      <c r="M39" s="95">
+      <c r="M39" s="55">
         <f>+'[2]420017893 BK'!T18</f>
         <v>45294</v>
       </c>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="102"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
-      <c r="AA39" s="101"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="101"/>
-      <c r="AD39" s="101"/>
-      <c r="AE39" s="101"/>
-      <c r="AF39" s="101"/>
-      <c r="AG39" s="101"/>
-      <c r="AH39" s="101"/>
-      <c r="AI39" s="101"/>
-      <c r="AJ39" s="101"/>
-      <c r="AK39" s="101"/>
-      <c r="AL39" s="101"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="101"/>
-      <c r="AO39" s="101"/>
-      <c r="AP39" s="101"/>
-      <c r="AQ39" s="101"/>
-      <c r="AR39" s="101"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
     </row>
     <row r="40" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A40" s="83">
+      <c r="A40" s="43">
         <v>18</v>
       </c>
-      <c r="B40" s="84" t="str">
+      <c r="B40" s="44" t="str">
         <f>+'[2]420017893 BK'!B19</f>
         <v>122205355</v>
       </c>
-      <c r="C40" s="85" t="str">
+      <c r="C40" s="45" t="str">
         <f>+'[2]420017893 BK'!K19</f>
         <v>122205355#&amp;Vỏ nhựa (Tay áo nhựa) dùng để bảo vệ cáp điện, Phi 3, PE100%, Loại: Đường kính: 3mm, mới 100%</v>
       </c>
-      <c r="D40" s="86" t="str">
+      <c r="D40" s="46" t="str">
         <f>+'[2]420017893 BK'!J19</f>
         <v>391721</v>
       </c>
-      <c r="E40" s="87" t="str">
+      <c r="E40" s="47" t="str">
         <f>+'[2]420017893 BK'!O19</f>
         <v>METRES</v>
       </c>
-      <c r="F40" s="88">
+      <c r="F40" s="48">
         <f>+'[2]420017893 BK'!C19</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G40" s="89">
+      <c r="G40" s="49">
         <f t="shared" si="0"/>
         <v>56.63</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="50">
         <f>+'[2]420017893 BK'!P19</f>
         <v>4.1578259999999999E-2</v>
       </c>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92">
+      <c r="I40" s="51"/>
+      <c r="J40" s="52">
         <f t="shared" si="1"/>
         <v>2.3545768638000002</v>
       </c>
-      <c r="K40" s="93" t="str">
+      <c r="K40" s="53" t="str">
         <f>+'[2]420017893 BK'!N19</f>
         <v>CHINA</v>
       </c>
-      <c r="L40" s="94">
+      <c r="L40" s="54">
         <f>+'[2]420017893 BK'!S19</f>
         <v>105998563160</v>
       </c>
-      <c r="M40" s="95">
+      <c r="M40" s="55">
         <f>+'[2]420017893 BK'!T19</f>
         <v>45294</v>
       </c>
-      <c r="N40" s="96"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="101"/>
-      <c r="AE40" s="101"/>
-      <c r="AF40" s="101"/>
-      <c r="AG40" s="101"/>
-      <c r="AH40" s="101"/>
-      <c r="AI40" s="101"/>
-      <c r="AJ40" s="101"/>
-      <c r="AK40" s="101"/>
-      <c r="AL40" s="101"/>
-      <c r="AM40" s="101"/>
-      <c r="AN40" s="101"/>
-      <c r="AO40" s="101"/>
-      <c r="AP40" s="101"/>
-      <c r="AQ40" s="101"/>
-      <c r="AR40" s="101"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
     </row>
     <row r="41" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A41" s="83">
+      <c r="A41" s="43">
         <v>19</v>
       </c>
-      <c r="B41" s="84" t="str">
+      <c r="B41" s="44" t="str">
         <f>+'[2]420017893 BK'!B20</f>
         <v>162201217</v>
       </c>
-      <c r="C41" s="85" t="str">
+      <c r="C41" s="45" t="str">
         <f>+'[2]420017893 BK'!K20</f>
         <v>162201217#&amp;Bộ Phận của động cơ điện-Nắp trước của động cơ điện, Phi 25.5*48*12, mới 100%</v>
       </c>
-      <c r="D41" s="86" t="str">
+      <c r="D41" s="46" t="str">
         <f>+'[2]420017893 BK'!J20</f>
         <v>850300</v>
       </c>
-      <c r="E41" s="87" t="str">
+      <c r="E41" s="47" t="str">
         <f>+'[2]420017893 BK'!O20</f>
         <v>PIECES</v>
       </c>
-      <c r="F41" s="88">
+      <c r="F41" s="48">
         <f>+'[2]420017893 BK'!C20</f>
         <v>1</v>
       </c>
-      <c r="G41" s="89">
+      <c r="G41" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="50">
         <f>+'[2]420017893 BK'!P20</f>
         <v>4.6939380000000003E-2</v>
       </c>
-      <c r="I41" s="91"/>
-      <c r="J41" s="92">
+      <c r="I41" s="51"/>
+      <c r="J41" s="52">
         <f t="shared" si="1"/>
         <v>37.973958420000002</v>
       </c>
-      <c r="K41" s="93" t="str">
+      <c r="K41" s="53" t="str">
         <f>+'[2]420017893 BK'!N20</f>
         <v>CHINA</v>
       </c>
-      <c r="L41" s="94">
+      <c r="L41" s="54">
         <f>+'[2]420017893 BK'!S20</f>
         <v>105998574360</v>
       </c>
-      <c r="M41" s="95">
+      <c r="M41" s="55">
         <f>+'[2]420017893 BK'!T20</f>
         <v>45294</v>
       </c>
-      <c r="N41" s="96"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="101"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="101"/>
-      <c r="AF41" s="101"/>
-      <c r="AG41" s="101"/>
-      <c r="AH41" s="101"/>
-      <c r="AI41" s="101"/>
-      <c r="AJ41" s="101"/>
-      <c r="AK41" s="101"/>
-      <c r="AL41" s="101"/>
-      <c r="AM41" s="101"/>
-      <c r="AN41" s="101"/>
-      <c r="AO41" s="101"/>
-      <c r="AP41" s="101"/>
-      <c r="AQ41" s="101"/>
-      <c r="AR41" s="101"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
     </row>
     <row r="42" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A42" s="83">
+      <c r="A42" s="43">
         <v>20</v>
       </c>
-      <c r="B42" s="84" t="str">
+      <c r="B42" s="44" t="str">
         <f>+'[2]420017893 BK'!B21</f>
         <v>162201218</v>
       </c>
-      <c r="C42" s="85" t="str">
+      <c r="C42" s="45" t="str">
         <f>+'[2]420017893 BK'!K21</f>
         <v>162201218#&amp;Bộ Phận của động cơ điện-Nắp sau của động cơ điện, Phi 25.5*48*12, mới 100%</v>
       </c>
-      <c r="D42" s="86" t="str">
+      <c r="D42" s="46" t="str">
         <f>+'[2]420017893 BK'!J21</f>
         <v>850300</v>
       </c>
-      <c r="E42" s="87" t="str">
+      <c r="E42" s="47" t="str">
         <f>+'[2]420017893 BK'!O21</f>
         <v>PIECES</v>
       </c>
-      <c r="F42" s="88">
+      <c r="F42" s="48">
         <f>+'[2]420017893 BK'!C21</f>
         <v>1</v>
       </c>
-      <c r="G42" s="89">
+      <c r="G42" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H42" s="90">
+      <c r="H42" s="50">
         <f>+'[2]420017893 BK'!P21</f>
         <v>4.6937340000000001E-2</v>
       </c>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92">
+      <c r="I42" s="51"/>
+      <c r="J42" s="52">
         <f t="shared" si="1"/>
         <v>37.972308060000003</v>
       </c>
-      <c r="K42" s="93" t="str">
+      <c r="K42" s="53" t="str">
         <f>+'[2]420017893 BK'!N21</f>
         <v>CHINA</v>
       </c>
-      <c r="L42" s="94">
+      <c r="L42" s="54">
         <f>+'[2]420017893 BK'!S21</f>
         <v>106000639950</v>
       </c>
-      <c r="M42" s="95">
+      <c r="M42" s="55">
         <f>+'[2]420017893 BK'!T21</f>
         <v>45294</v>
       </c>
-      <c r="N42" s="96"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="102"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="101"/>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="101"/>
-      <c r="Z42" s="101"/>
-      <c r="AA42" s="101"/>
-      <c r="AB42" s="101"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="101"/>
-      <c r="AE42" s="101"/>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="101"/>
-      <c r="AH42" s="101"/>
-      <c r="AI42" s="101"/>
-      <c r="AJ42" s="101"/>
-      <c r="AK42" s="101"/>
-      <c r="AL42" s="101"/>
-      <c r="AM42" s="101"/>
-      <c r="AN42" s="101"/>
-      <c r="AO42" s="101"/>
-      <c r="AP42" s="101"/>
-      <c r="AQ42" s="101"/>
-      <c r="AR42" s="101"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
     </row>
     <row r="43" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A43" s="83">
+      <c r="A43" s="43">
         <v>21</v>
       </c>
-      <c r="B43" s="84" t="str">
+      <c r="B43" s="44" t="str">
         <f>+'[2]420017893 BK'!B22</f>
         <v>162201363</v>
       </c>
-      <c r="C43" s="85" t="str">
+      <c r="C43" s="45" t="str">
         <f>+'[2]420017893 BK'!K22</f>
         <v>162201363#&amp;Giấy cách điện được phủ lớp nhựa lên bề mặt, dạng cuộn, quy cách 0.2MMx31mmx400M, mới 100%</v>
       </c>
-      <c r="D43" s="86" t="str">
+      <c r="D43" s="46" t="str">
         <f>+'[2]420017893 BK'!J22</f>
         <v>481159</v>
       </c>
-      <c r="E43" s="87" t="str">
+      <c r="E43" s="47" t="str">
         <f>+'[2]420017893 BK'!O22</f>
         <v>METRES</v>
       </c>
-      <c r="F43" s="88">
+      <c r="F43" s="48">
         <f>+'[2]420017893 BK'!C22</f>
         <v>0.09</v>
       </c>
-      <c r="G43" s="89">
+      <c r="G43" s="49">
         <f t="shared" si="0"/>
         <v>72.81</v>
       </c>
-      <c r="H43" s="90">
+      <c r="H43" s="50">
         <f>+'[2]420017893 BK'!P22</f>
         <v>4.9559760000000001E-2</v>
       </c>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92">
+      <c r="I43" s="51"/>
+      <c r="J43" s="52">
         <f t="shared" si="1"/>
         <v>3.6084461256</v>
       </c>
-      <c r="K43" s="93" t="str">
+      <c r="K43" s="53" t="str">
         <f>+'[2]420017893 BK'!N22</f>
         <v>CHINA</v>
       </c>
-      <c r="L43" s="94">
+      <c r="L43" s="54">
         <f>+'[2]420017893 BK'!S22</f>
         <v>106000639950</v>
       </c>
-      <c r="M43" s="95">
+      <c r="M43" s="55">
         <f>+'[2]420017893 BK'!T22</f>
         <v>45294</v>
       </c>
-      <c r="N43" s="96"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="102"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="101"/>
-      <c r="AJ43" s="101"/>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="101"/>
-      <c r="AM43" s="101"/>
-      <c r="AN43" s="101"/>
-      <c r="AO43" s="101"/>
-      <c r="AP43" s="101"/>
-      <c r="AQ43" s="101"/>
-      <c r="AR43" s="101"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
     </row>
     <row r="44" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A44" s="83">
+      <c r="A44" s="43">
         <v>22</v>
       </c>
-      <c r="B44" s="84" t="str">
+      <c r="B44" s="44" t="str">
         <f>+'[2]420017893 BK'!B23</f>
         <v>162000847</v>
       </c>
-      <c r="C44" s="85" t="str">
+      <c r="C44" s="45" t="str">
         <f>+'[2]420017893 BK'!K23</f>
         <v>162000847#&amp;Đinh vít chất liệu thép carbon, đường kính ngoài 4mm, mới 100%</v>
       </c>
-      <c r="D44" s="86" t="str">
+      <c r="D44" s="46" t="str">
         <f>+'[2]420017893 BK'!J23</f>
         <v>731815</v>
       </c>
-      <c r="E44" s="87" t="str">
+      <c r="E44" s="47" t="str">
         <f>+'[2]420017893 BK'!O23</f>
         <v>PIECES</v>
       </c>
-      <c r="F44" s="88">
+      <c r="F44" s="48">
         <f>+'[2]420017893 BK'!C23</f>
         <v>4</v>
       </c>
-      <c r="G44" s="89">
+      <c r="G44" s="49">
         <f t="shared" si="0"/>
         <v>3236</v>
       </c>
-      <c r="H44" s="90">
+      <c r="H44" s="50">
         <f>+'[2]420017893 BK'!P23</f>
         <v>9.1004399999999996E-3</v>
       </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92">
+      <c r="I44" s="51"/>
+      <c r="J44" s="52">
         <f t="shared" si="1"/>
         <v>29.449023839999999</v>
       </c>
-      <c r="K44" s="93" t="str">
+      <c r="K44" s="53" t="str">
         <f>+'[2]420017893 BK'!N23</f>
         <v>CHINA</v>
       </c>
-      <c r="L44" s="94">
+      <c r="L44" s="54">
         <f>+'[2]420017893 BK'!S23</f>
         <v>106000636710</v>
       </c>
-      <c r="M44" s="95">
+      <c r="M44" s="55">
         <f>+'[2]420017893 BK'!T23</f>
         <v>45294</v>
       </c>
-      <c r="N44" s="96"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="101"/>
-      <c r="AI44" s="101"/>
-      <c r="AJ44" s="101"/>
-      <c r="AK44" s="101"/>
-      <c r="AL44" s="101"/>
-      <c r="AM44" s="101"/>
-      <c r="AN44" s="101"/>
-      <c r="AO44" s="101"/>
-      <c r="AP44" s="101"/>
-      <c r="AQ44" s="101"/>
-      <c r="AR44" s="101"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="61"/>
     </row>
     <row r="45" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A45" s="83">
+      <c r="A45" s="43">
         <v>23</v>
       </c>
-      <c r="B45" s="84" t="str">
+      <c r="B45" s="44" t="str">
         <f>+'[2]420017893 BK'!B24</f>
         <v>122006770</v>
       </c>
-      <c r="C45" s="85" t="str">
+      <c r="C45" s="45" t="str">
         <f>+'[2]420017893 BK'!K24</f>
         <v>122006770#&amp;Bộ Phận của động cơ điện-Lõi sắt stator dùng sx động cơ điện, Phi 48*25*25.2, mới 100%</v>
       </c>
-      <c r="D45" s="86" t="str">
+      <c r="D45" s="46" t="str">
         <f>+'[2]420017893 BK'!J24</f>
         <v>850300</v>
       </c>
-      <c r="E45" s="87" t="str">
+      <c r="E45" s="47" t="str">
         <f>+'[2]420017893 BK'!O24</f>
         <v>PIECES</v>
       </c>
-      <c r="F45" s="88">
+      <c r="F45" s="48">
         <f>+'[2]420017893 BK'!C24</f>
         <v>1.00032621784346</v>
       </c>
-      <c r="G45" s="89">
+      <c r="G45" s="49">
         <f t="shared" si="0"/>
         <v>809.26391023535916</v>
       </c>
-      <c r="H45" s="90">
+      <c r="H45" s="50">
         <f>+'[2]420017893 BK'!P24</f>
         <v>0.43194756000000001</v>
       </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="92">
+      <c r="I45" s="51"/>
+      <c r="J45" s="52">
         <f t="shared" si="1"/>
         <v>349.5595714222224</v>
       </c>
-      <c r="K45" s="93" t="str">
+      <c r="K45" s="53" t="str">
         <f>+'[2]420017893 BK'!N24</f>
         <v>CHINA</v>
       </c>
-      <c r="L45" s="94">
+      <c r="L45" s="54">
         <f>+'[2]420017893 BK'!S24</f>
         <v>105998563160</v>
       </c>
-      <c r="M45" s="95">
+      <c r="M45" s="55">
         <f>+'[2]420017893 BK'!T24</f>
         <v>45294</v>
       </c>
-      <c r="N45" s="96"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="102"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="101"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="101"/>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="101"/>
-      <c r="AJ45" s="101"/>
-      <c r="AK45" s="101"/>
-      <c r="AL45" s="101"/>
-      <c r="AM45" s="101"/>
-      <c r="AN45" s="101"/>
-      <c r="AO45" s="101"/>
-      <c r="AP45" s="101"/>
-      <c r="AQ45" s="101"/>
-      <c r="AR45" s="101"/>
-    </row>
-    <row r="46" spans="1:44" s="122" customFormat="1" ht="100.05" customHeight="1">
-      <c r="A46" s="83">
+      <c r="N45" s="56"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="61"/>
+      <c r="AQ45" s="61"/>
+      <c r="AR45" s="61"/>
+    </row>
+    <row r="46" spans="1:44" s="82" customFormat="1" ht="100.05" customHeight="1">
+      <c r="A46" s="43">
         <v>24</v>
       </c>
-      <c r="B46" s="104" t="str">
+      <c r="B46" s="64" t="str">
         <f>+'[2]420017893 BK'!B25</f>
         <v>161602237</v>
       </c>
-      <c r="C46" s="105" t="str">
+      <c r="C46" s="65" t="str">
         <f>+'[2]420017893 BK'!K25</f>
         <v>161602237#&amp;Cuộn dây lõi quấn đồng của rotor dùng sản xuất động cơ điện có phủ lớp ngoài bằng men tráng, Phi 0.95, mới 100%</v>
       </c>
-      <c r="D46" s="106" t="str">
+      <c r="D46" s="66" t="str">
         <f>+'[2]420017893 BK'!J25</f>
         <v>854411</v>
       </c>
-      <c r="E46" s="107" t="s">
+      <c r="E46" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="108">
+      <c r="F46" s="68">
         <f>+'[2]420017893 BK'!C25</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G46" s="109">
+      <c r="G46" s="69">
         <f t="shared" si="0"/>
         <v>36.405000000000001</v>
       </c>
-      <c r="H46" s="110">
+      <c r="H46" s="70">
         <f>+'[2]420017893 BK'!P25/1000</f>
         <v>1.0413737940000001E-2</v>
       </c>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112">
+      <c r="I46" s="71"/>
+      <c r="J46" s="72">
         <f t="shared" si="1"/>
         <v>0.37911212970570002</v>
       </c>
-      <c r="K46" s="113" t="str">
+      <c r="K46" s="73" t="str">
         <f>+'[2]420017893 BK'!N25</f>
         <v>CHINA</v>
       </c>
-      <c r="L46" s="114">
+      <c r="L46" s="74">
         <f>+'[2]420017893 BK'!S25</f>
         <v>105998563160</v>
       </c>
-      <c r="M46" s="115">
+      <c r="M46" s="75">
         <f>+'[2]420017893 BK'!T25</f>
         <v>45294</v>
       </c>
-      <c r="N46" s="116"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="120"/>
-      <c r="X46" s="120"/>
-      <c r="Y46" s="120"/>
-      <c r="Z46" s="120"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="120"/>
-      <c r="AC46" s="120"/>
-      <c r="AD46" s="120"/>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="120"/>
-      <c r="AG46" s="120"/>
-      <c r="AH46" s="120"/>
-      <c r="AI46" s="120"/>
-      <c r="AJ46" s="120"/>
-      <c r="AK46" s="120"/>
-      <c r="AL46" s="120"/>
-      <c r="AM46" s="120"/>
-      <c r="AN46" s="120"/>
-      <c r="AO46" s="120"/>
-      <c r="AP46" s="120"/>
-      <c r="AQ46" s="120"/>
-      <c r="AR46" s="120"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="80"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="80"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="80"/>
+      <c r="AO46" s="80"/>
+      <c r="AP46" s="80"/>
+      <c r="AQ46" s="80"/>
+      <c r="AR46" s="80"/>
     </row>
     <row r="47" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A47" s="83">
+      <c r="A47" s="43">
         <v>25</v>
       </c>
-      <c r="B47" s="84" t="str">
+      <c r="B47" s="44" t="str">
         <f>+'[2]420017893 BK'!B26</f>
         <v>162000868</v>
       </c>
-      <c r="C47" s="85" t="str">
+      <c r="C47" s="45" t="str">
         <f>+'[2]420017893 BK'!K26</f>
         <v>162000868#&amp;Bộ phận của động cơ điện-Lõi thép rotor dùng sx động cơ điện, Phi 6*24*25, mới 100%</v>
       </c>
-      <c r="D47" s="86" t="str">
+      <c r="D47" s="46" t="str">
         <f>+'[2]420017893 BK'!J26</f>
         <v>850300</v>
       </c>
-      <c r="E47" s="87" t="str">
+      <c r="E47" s="47" t="str">
         <f>+'[2]420017893 BK'!O26</f>
         <v>PIECES</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="48">
         <f>+'[2]420017893 BK'!C26</f>
         <v>1</v>
       </c>
-      <c r="G47" s="89">
+      <c r="G47" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H47" s="90">
+      <c r="H47" s="50">
         <f>+'[2]420017893 BK'!P26</f>
         <v>0.1004853</v>
       </c>
-      <c r="I47" s="91"/>
-      <c r="J47" s="92">
+      <c r="I47" s="51"/>
+      <c r="J47" s="52">
         <f t="shared" si="1"/>
         <v>81.292607700000005</v>
       </c>
-      <c r="K47" s="93" t="str">
+      <c r="K47" s="53" t="str">
         <f>+'[2]420017893 BK'!N26</f>
         <v>CHINA</v>
       </c>
-      <c r="L47" s="94">
+      <c r="L47" s="54">
         <f>+'[2]420017893 BK'!S26</f>
         <v>105998571230</v>
       </c>
-      <c r="M47" s="95">
+      <c r="M47" s="55">
         <f>+'[2]420017893 BK'!T26</f>
         <v>45294</v>
       </c>
-      <c r="N47" s="96"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="101"/>
-      <c r="X47" s="101"/>
-      <c r="Y47" s="101"/>
-      <c r="Z47" s="101"/>
-      <c r="AA47" s="101"/>
-      <c r="AB47" s="101"/>
-      <c r="AC47" s="101"/>
-      <c r="AD47" s="101"/>
-      <c r="AE47" s="101"/>
-      <c r="AF47" s="101"/>
-      <c r="AG47" s="101"/>
-      <c r="AH47" s="101"/>
-      <c r="AI47" s="101"/>
-      <c r="AJ47" s="101"/>
-      <c r="AK47" s="101"/>
-      <c r="AL47" s="101"/>
-      <c r="AM47" s="101"/>
-      <c r="AN47" s="101"/>
-      <c r="AO47" s="101"/>
-      <c r="AP47" s="101"/>
-      <c r="AQ47" s="101"/>
-      <c r="AR47" s="101"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="61"/>
+      <c r="V47" s="61"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
     </row>
     <row r="48" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A48" s="83">
+      <c r="A48" s="43">
         <v>26</v>
       </c>
-      <c r="B48" s="84" t="str">
+      <c r="B48" s="44" t="str">
         <f>+'[2]420017893 BK'!B27</f>
         <v>163100023</v>
       </c>
-      <c r="C48" s="85" t="str">
+      <c r="C48" s="45" t="str">
         <f>+'[2]420017893 BK'!K27</f>
         <v>163100023#&amp;Ổ đỡ trục rãnh sâu dùng hỗ trợ thân máy quay, giảm ma sát và đảm bảo độ chính xác, Phi 17*6*6, mới 100%</v>
       </c>
-      <c r="D48" s="86" t="str">
+      <c r="D48" s="46" t="str">
         <f>+'[2]420017893 BK'!J27</f>
         <v>848210</v>
       </c>
-      <c r="E48" s="87" t="str">
+      <c r="E48" s="47" t="str">
         <f>+'[2]420017893 BK'!O27</f>
         <v>PIECES</v>
       </c>
-      <c r="F48" s="88">
+      <c r="F48" s="48">
         <f>+'[2]420017893 BK'!C27</f>
         <v>2</v>
       </c>
-      <c r="G48" s="89">
+      <c r="G48" s="49">
         <f t="shared" si="0"/>
         <v>1618</v>
       </c>
-      <c r="H48" s="90">
+      <c r="H48" s="50">
         <f>+'[2]420017893 BK'!P27</f>
         <v>0.14777045999999999</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="92">
+      <c r="I48" s="51"/>
+      <c r="J48" s="52">
         <f t="shared" si="1"/>
         <v>239.09260427999999</v>
       </c>
-      <c r="K48" s="93" t="str">
+      <c r="K48" s="53" t="str">
         <f>+'[2]420017893 BK'!N27</f>
         <v>CHINA</v>
       </c>
-      <c r="L48" s="94">
+      <c r="L48" s="54">
         <f>+'[2]420017893 BK'!S27</f>
         <v>105998574360</v>
       </c>
-      <c r="M48" s="95">
+      <c r="M48" s="55">
         <f>+'[2]420017893 BK'!T27</f>
         <v>45294</v>
       </c>
-      <c r="N48" s="96"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="101"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="101"/>
-      <c r="AI48" s="101"/>
-      <c r="AJ48" s="101"/>
-      <c r="AK48" s="101"/>
-      <c r="AL48" s="101"/>
-      <c r="AM48" s="101"/>
-      <c r="AN48" s="101"/>
-      <c r="AO48" s="101"/>
-      <c r="AP48" s="101"/>
-      <c r="AQ48" s="101"/>
-      <c r="AR48" s="101"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
     </row>
     <row r="49" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A49" s="83">
+      <c r="A49" s="43">
         <v>27</v>
       </c>
-      <c r="B49" s="84" t="str">
+      <c r="B49" s="44" t="str">
         <f>+'[2]420017893 BK'!B28</f>
         <v>163500042</v>
       </c>
-      <c r="C49" s="85" t="str">
+      <c r="C49" s="45" t="str">
         <f>+'[2]420017893 BK'!K28</f>
         <v>163500042#&amp;Nam châm vĩnh cửu bằng thép, Quy cách (12.5*2.2*25)mm, mới 100%</v>
       </c>
-      <c r="D49" s="86" t="str">
+      <c r="D49" s="46" t="str">
         <f>+'[2]420017893 BK'!J28</f>
         <v>850511</v>
       </c>
-      <c r="E49" s="87" t="str">
+      <c r="E49" s="47" t="str">
         <f>+'[2]420017893 BK'!O28</f>
         <v>PIECES</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="48">
         <f>+'[2]420017893 BK'!C28</f>
         <v>0.72249589490968802</v>
       </c>
-      <c r="G49" s="89">
+      <c r="G49" s="49">
         <f t="shared" si="0"/>
         <v>584.49917898193758</v>
       </c>
-      <c r="H49" s="90">
+      <c r="H49" s="50">
         <f>+'[2]420017893 BK'!P28</f>
         <v>0.48473664</v>
       </c>
-      <c r="I49" s="91"/>
-      <c r="J49" s="92">
+      <c r="I49" s="51"/>
+      <c r="J49" s="52">
         <f t="shared" si="1"/>
         <v>283.32816810246305</v>
       </c>
-      <c r="K49" s="93" t="str">
+      <c r="K49" s="53" t="str">
         <f>+'[2]420017893 BK'!N28</f>
         <v>CHINA</v>
       </c>
-      <c r="L49" s="94">
+      <c r="L49" s="54">
         <f>+'[2]420017893 BK'!S28</f>
         <v>106116993620</v>
       </c>
-      <c r="M49" s="95">
+      <c r="M49" s="55">
         <f>+'[2]420017893 BK'!T28</f>
         <v>45356</v>
       </c>
-      <c r="N49" s="96"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="102"/>
-      <c r="U49" s="101"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="101"/>
-      <c r="X49" s="101"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="101"/>
-      <c r="AB49" s="101"/>
-      <c r="AC49" s="101"/>
-      <c r="AD49" s="101"/>
-      <c r="AE49" s="101"/>
-      <c r="AF49" s="101"/>
-      <c r="AG49" s="101"/>
-      <c r="AH49" s="101"/>
-      <c r="AI49" s="101"/>
-      <c r="AJ49" s="101"/>
-      <c r="AK49" s="101"/>
-      <c r="AL49" s="101"/>
-      <c r="AM49" s="101"/>
-      <c r="AN49" s="101"/>
-      <c r="AO49" s="101"/>
-      <c r="AP49" s="101"/>
-      <c r="AQ49" s="101"/>
-      <c r="AR49" s="101"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="61"/>
     </row>
     <row r="50" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A50" s="83">
+      <c r="A50" s="43">
         <v>28</v>
       </c>
-      <c r="B50" s="84" t="str">
+      <c r="B50" s="44" t="str">
         <f>+'[2]420017893 BK'!B29</f>
         <v>163600033</v>
       </c>
-      <c r="C50" s="85" t="str">
+      <c r="C50" s="45" t="str">
         <f>+'[2]420017893 BK'!K29</f>
         <v>163600033#&amp;Bộ Phận của động cơ điện-Nắp sau của động cơ, Phi 52.5*17*16.5, mới 100%</v>
       </c>
-      <c r="D50" s="86" t="str">
+      <c r="D50" s="46" t="str">
         <f>+'[2]420017893 BK'!J29</f>
         <v>850300</v>
       </c>
-      <c r="E50" s="87" t="str">
+      <c r="E50" s="47" t="str">
         <f>+'[2]420017893 BK'!O29</f>
         <v>PIECES</v>
       </c>
-      <c r="F50" s="88">
+      <c r="F50" s="48">
         <f>+'[2]420017893 BK'!C29</f>
         <v>1</v>
       </c>
-      <c r="G50" s="89">
+      <c r="G50" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H50" s="90">
+      <c r="H50" s="50">
         <f>+'[2]420017893 BK'!P29</f>
         <v>0.12337104</v>
       </c>
-      <c r="I50" s="91"/>
-      <c r="J50" s="92">
+      <c r="I50" s="51"/>
+      <c r="J50" s="52">
         <f t="shared" si="1"/>
         <v>99.807171359999998</v>
       </c>
-      <c r="K50" s="93" t="str">
+      <c r="K50" s="53" t="str">
         <f>+'[2]420017893 BK'!N29</f>
         <v>CHINA</v>
       </c>
-      <c r="L50" s="94">
+      <c r="L50" s="54">
         <f>+'[2]420017893 BK'!S29</f>
         <v>105998577530</v>
       </c>
-      <c r="M50" s="95">
+      <c r="M50" s="55">
         <f>+'[2]420017893 BK'!T29</f>
         <v>45294</v>
       </c>
-      <c r="N50" s="96"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="101"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="101"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="101"/>
-      <c r="AB50" s="101"/>
-      <c r="AC50" s="101"/>
-      <c r="AD50" s="101"/>
-      <c r="AE50" s="101"/>
-      <c r="AF50" s="101"/>
-      <c r="AG50" s="101"/>
-      <c r="AH50" s="101"/>
-      <c r="AI50" s="101"/>
-      <c r="AJ50" s="101"/>
-      <c r="AK50" s="101"/>
-      <c r="AL50" s="101"/>
-      <c r="AM50" s="101"/>
-      <c r="AN50" s="101"/>
-      <c r="AO50" s="101"/>
-      <c r="AP50" s="101"/>
-      <c r="AQ50" s="101"/>
-      <c r="AR50" s="101"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
     </row>
     <row r="51" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A51" s="83">
+      <c r="A51" s="43">
         <v>29</v>
       </c>
-      <c r="B51" s="84" t="str">
+      <c r="B51" s="44" t="str">
         <f>+'[2]420017893 BK'!B30</f>
         <v>163500043</v>
       </c>
-      <c r="C51" s="85" t="str">
+      <c r="C51" s="45" t="str">
         <f>+'[2]420017893 BK'!K30</f>
         <v>163500043#&amp;Nam châm vĩnh cửu bằng thép, Quy cách12.5*2.2mm, mới 100%</v>
       </c>
-      <c r="D51" s="86" t="str">
+      <c r="D51" s="46" t="str">
         <f>+'[2]420017893 BK'!J30</f>
         <v>850511</v>
       </c>
-      <c r="E51" s="87" t="str">
+      <c r="E51" s="47" t="str">
         <f>+'[2]420017893 BK'!O30</f>
         <v>PIECES</v>
       </c>
-      <c r="F51" s="88">
+      <c r="F51" s="48">
         <f>+'[2]420017893 BK'!C30</f>
         <v>3.2775041050903102</v>
       </c>
-      <c r="G51" s="89">
+      <c r="G51" s="49">
         <f t="shared" si="0"/>
         <v>2651.5008210180608</v>
       </c>
-      <c r="H51" s="90">
+      <c r="H51" s="50">
         <f>+'[2]420017893 BK'!P30</f>
         <v>0.25318133999999998</v>
       </c>
-      <c r="I51" s="91"/>
-      <c r="J51" s="92">
+      <c r="I51" s="51"/>
+      <c r="J51" s="52">
         <f t="shared" si="1"/>
         <v>671.31053087645273</v>
       </c>
-      <c r="K51" s="93" t="str">
+      <c r="K51" s="53" t="str">
         <f>+'[2]420017893 BK'!N30</f>
         <v>CHINA</v>
       </c>
-      <c r="L51" s="94">
+      <c r="L51" s="54">
         <f>+'[2]420017893 BK'!S30</f>
         <v>106032431410</v>
       </c>
-      <c r="M51" s="95">
+      <c r="M51" s="55">
         <f>+'[2]420017893 BK'!T30</f>
         <v>45309</v>
       </c>
-      <c r="N51" s="96"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="102"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="101"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="101"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="101"/>
-      <c r="AB51" s="101"/>
-      <c r="AC51" s="101"/>
-      <c r="AD51" s="101"/>
-      <c r="AE51" s="101"/>
-      <c r="AF51" s="101"/>
-      <c r="AG51" s="101"/>
-      <c r="AH51" s="101"/>
-      <c r="AI51" s="101"/>
-      <c r="AJ51" s="101"/>
-      <c r="AK51" s="101"/>
-      <c r="AL51" s="101"/>
-      <c r="AM51" s="101"/>
-      <c r="AN51" s="101"/>
-      <c r="AO51" s="101"/>
-      <c r="AP51" s="101"/>
-      <c r="AQ51" s="101"/>
-      <c r="AR51" s="101"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
     </row>
     <row r="52" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A52" s="83">
+      <c r="A52" s="43">
         <v>30</v>
       </c>
-      <c r="B52" s="84" t="str">
+      <c r="B52" s="44" t="str">
         <f>+'[2]420017893 BK'!B31</f>
         <v>161602232</v>
       </c>
-      <c r="C52" s="85" t="str">
+      <c r="C52" s="45" t="str">
         <f>+'[2]420017893 BK'!K31</f>
         <v>161602232#&amp;Dây điện có gắn đầu nối vỏ ngoài bằng cao su dùng sx động cơ điện, dòng điện 600V, đường kính lõi 1.63mm, chiều dài 170mm, mới 100%</v>
       </c>
-      <c r="D52" s="86" t="str">
+      <c r="D52" s="46" t="str">
         <f>+'[2]420017893 BK'!J31</f>
         <v>854442</v>
       </c>
-      <c r="E52" s="87" t="str">
+      <c r="E52" s="47" t="str">
         <f>+'[2]420017893 BK'!O31</f>
         <v>PIECES</v>
       </c>
-      <c r="F52" s="88">
+      <c r="F52" s="48">
         <f>+'[2]420017893 BK'!C31</f>
         <v>1</v>
       </c>
-      <c r="G52" s="89">
+      <c r="G52" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H52" s="90">
+      <c r="H52" s="50">
         <f>+'[2]420017893 BK'!P31</f>
         <v>0.10087902</v>
       </c>
-      <c r="I52" s="91"/>
-      <c r="J52" s="92">
+      <c r="I52" s="51"/>
+      <c r="J52" s="52">
         <f t="shared" si="1"/>
         <v>81.611127179999997</v>
       </c>
-      <c r="K52" s="93" t="str">
+      <c r="K52" s="53" t="str">
         <f>+'[2]420017893 BK'!N31</f>
         <v>CHINA</v>
       </c>
-      <c r="L52" s="94">
+      <c r="L52" s="54">
         <f>+'[2]420017893 BK'!S31</f>
         <v>105998563160</v>
       </c>
-      <c r="M52" s="95">
+      <c r="M52" s="55">
         <f>+'[2]420017893 BK'!T31</f>
         <v>45294</v>
       </c>
-      <c r="N52" s="96"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="101"/>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="101"/>
-      <c r="AB52" s="101"/>
-      <c r="AC52" s="101"/>
-      <c r="AD52" s="101"/>
-      <c r="AE52" s="101"/>
-      <c r="AF52" s="101"/>
-      <c r="AG52" s="101"/>
-      <c r="AH52" s="101"/>
-      <c r="AI52" s="101"/>
-      <c r="AJ52" s="101"/>
-      <c r="AK52" s="101"/>
-      <c r="AL52" s="101"/>
-      <c r="AM52" s="101"/>
-      <c r="AN52" s="101"/>
-      <c r="AO52" s="101"/>
-      <c r="AP52" s="101"/>
-      <c r="AQ52" s="101"/>
-      <c r="AR52" s="101"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="61"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="61"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="61"/>
     </row>
     <row r="53" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A53" s="83">
+      <c r="A53" s="43">
         <v>31</v>
       </c>
-      <c r="B53" s="84" t="str">
+      <c r="B53" s="44" t="str">
         <f>+'[2]420017893 BK'!B32</f>
         <v>161602233</v>
       </c>
-      <c r="C53" s="85" t="str">
+      <c r="C53" s="45" t="str">
         <f>+'[2]420017893 BK'!K32</f>
         <v>161602233#&amp;Dây điện có gắn đầu nối vỏ ngoài bằng cao su dùng sx động cơ điện, dòng điện 600V, đường kính lõi 1.63mm, chiều dài 170mm, mới 100%</v>
       </c>
-      <c r="D53" s="86" t="str">
+      <c r="D53" s="46" t="str">
         <f>+'[2]420017893 BK'!J32</f>
         <v>854442</v>
       </c>
-      <c r="E53" s="87" t="str">
+      <c r="E53" s="47" t="str">
         <f>+'[2]420017893 BK'!O32</f>
         <v>PIECES</v>
       </c>
-      <c r="F53" s="88">
+      <c r="F53" s="48">
         <f>+'[2]420017893 BK'!C32</f>
         <v>1</v>
       </c>
-      <c r="G53" s="89">
+      <c r="G53" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H53" s="90">
+      <c r="H53" s="50">
         <f>+'[2]420017893 BK'!P32</f>
         <v>0.10087902</v>
       </c>
-      <c r="I53" s="91"/>
-      <c r="J53" s="92">
+      <c r="I53" s="51"/>
+      <c r="J53" s="52">
         <f t="shared" si="1"/>
         <v>81.611127179999997</v>
       </c>
-      <c r="K53" s="93" t="str">
+      <c r="K53" s="53" t="str">
         <f>+'[2]420017893 BK'!N32</f>
         <v>CHINA</v>
       </c>
-      <c r="L53" s="94">
+      <c r="L53" s="54">
         <f>+'[2]420017893 BK'!S32</f>
         <v>105998563160</v>
       </c>
-      <c r="M53" s="95">
+      <c r="M53" s="55">
         <f>+'[2]420017893 BK'!T32</f>
         <v>45294</v>
       </c>
-      <c r="N53" s="96"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="102"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="101"/>
-      <c r="W53" s="101"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="101"/>
-      <c r="Z53" s="101"/>
-      <c r="AA53" s="101"/>
-      <c r="AB53" s="101"/>
-      <c r="AC53" s="101"/>
-      <c r="AD53" s="101"/>
-      <c r="AE53" s="101"/>
-      <c r="AF53" s="101"/>
-      <c r="AG53" s="101"/>
-      <c r="AH53" s="101"/>
-      <c r="AI53" s="101"/>
-      <c r="AJ53" s="101"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="101"/>
-      <c r="AM53" s="101"/>
-      <c r="AN53" s="101"/>
-      <c r="AO53" s="101"/>
-      <c r="AP53" s="101"/>
-      <c r="AQ53" s="101"/>
-      <c r="AR53" s="101"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="61"/>
     </row>
     <row r="54" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A54" s="83">
+      <c r="A54" s="43">
         <v>32</v>
       </c>
-      <c r="B54" s="84" t="str">
+      <c r="B54" s="44" t="str">
         <f>+'[2]420017893 BK'!B33</f>
         <v>161602234</v>
       </c>
-      <c r="C54" s="85" t="str">
+      <c r="C54" s="45" t="str">
         <f>+'[2]420017893 BK'!K33</f>
         <v>161602234#&amp;Dây điện có gắn đầu nối vỏ ngoài bằng cao su dùng sx động cơ điện, dòng điện 600V, đường kính lõi 1.63mm, chiều dài 170mm, mới 100%</v>
       </c>
-      <c r="D54" s="86" t="str">
+      <c r="D54" s="46" t="str">
         <f>+'[2]420017893 BK'!J33</f>
         <v>854442</v>
       </c>
-      <c r="E54" s="87" t="str">
+      <c r="E54" s="47" t="str">
         <f>+'[2]420017893 BK'!O33</f>
         <v>PIECES</v>
       </c>
-      <c r="F54" s="88">
+      <c r="F54" s="48">
         <f>+'[2]420017893 BK'!C33</f>
         <v>1</v>
       </c>
-      <c r="G54" s="89">
+      <c r="G54" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H54" s="90">
+      <c r="H54" s="50">
         <f>+'[2]420017893 BK'!P33</f>
         <v>0.10087902</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="92">
+      <c r="I54" s="51"/>
+      <c r="J54" s="52">
         <f t="shared" si="1"/>
         <v>81.611127179999997</v>
       </c>
-      <c r="K54" s="93" t="str">
+      <c r="K54" s="53" t="str">
         <f>+'[2]420017893 BK'!N33</f>
         <v>CHINA</v>
       </c>
-      <c r="L54" s="94">
+      <c r="L54" s="54">
         <f>+'[2]420017893 BK'!S33</f>
         <v>105998563160</v>
       </c>
-      <c r="M54" s="95">
+      <c r="M54" s="55">
         <f>+'[2]420017893 BK'!T33</f>
         <v>45294</v>
       </c>
-      <c r="N54" s="96"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="101"/>
-      <c r="W54" s="101"/>
-      <c r="X54" s="101"/>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="101"/>
-      <c r="AB54" s="101"/>
-      <c r="AC54" s="101"/>
-      <c r="AD54" s="101"/>
-      <c r="AE54" s="101"/>
-      <c r="AF54" s="101"/>
-      <c r="AG54" s="101"/>
-      <c r="AH54" s="101"/>
-      <c r="AI54" s="101"/>
-      <c r="AJ54" s="101"/>
-      <c r="AK54" s="101"/>
-      <c r="AL54" s="101"/>
-      <c r="AM54" s="101"/>
-      <c r="AN54" s="101"/>
-      <c r="AO54" s="101"/>
-      <c r="AP54" s="101"/>
-      <c r="AQ54" s="101"/>
-      <c r="AR54" s="101"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="61"/>
+      <c r="AL54" s="61"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="61"/>
+      <c r="AO54" s="61"/>
+      <c r="AP54" s="61"/>
+      <c r="AQ54" s="61"/>
+      <c r="AR54" s="61"/>
     </row>
     <row r="55" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A55" s="83">
+      <c r="A55" s="43">
         <v>33</v>
       </c>
-      <c r="B55" s="84" t="str">
+      <c r="B55" s="44" t="str">
         <f>+'[2]420017893 BK'!B34</f>
         <v>162000881</v>
       </c>
-      <c r="C55" s="85" t="str">
+      <c r="C55" s="45" t="str">
         <f>+'[2]420017893 BK'!K34</f>
         <v>162000881#&amp;Vòng đệm bằng nhựa, dùng sản xuất sx tấm mạch in, mới 100%</v>
       </c>
-      <c r="D55" s="86" t="str">
+      <c r="D55" s="46" t="str">
         <f>+'[2]420017893 BK'!J34</f>
         <v>392690</v>
       </c>
-      <c r="E55" s="87" t="str">
+      <c r="E55" s="47" t="str">
         <f>+'[2]420017893 BK'!O34</f>
         <v>PIECES</v>
       </c>
-      <c r="F55" s="88">
+      <c r="F55" s="48">
         <f>+'[2]420017893 BK'!C34</f>
         <v>2</v>
       </c>
-      <c r="G55" s="89">
+      <c r="G55" s="49">
         <f t="shared" si="0"/>
         <v>1618</v>
       </c>
-      <c r="H55" s="90">
+      <c r="H55" s="50">
         <f>+'[2]420017893 BK'!P34</f>
         <v>1.41372E-3</v>
       </c>
-      <c r="I55" s="91"/>
-      <c r="J55" s="92">
+      <c r="I55" s="51"/>
+      <c r="J55" s="52">
         <f t="shared" si="1"/>
         <v>2.28739896</v>
       </c>
-      <c r="K55" s="93" t="str">
+      <c r="K55" s="53" t="str">
         <f>+'[2]420017893 BK'!N34</f>
         <v>CHINA</v>
       </c>
-      <c r="L55" s="94">
+      <c r="L55" s="54">
         <f>+'[2]420017893 BK'!S34</f>
         <v>106044786520</v>
       </c>
-      <c r="M55" s="95">
+      <c r="M55" s="55">
         <f>+'[2]420017893 BK'!T34</f>
         <v>45315</v>
       </c>
-      <c r="N55" s="96"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="100"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="102"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="101"/>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="101"/>
-      <c r="Z55" s="101"/>
-      <c r="AA55" s="101"/>
-      <c r="AB55" s="101"/>
-      <c r="AC55" s="101"/>
-      <c r="AD55" s="101"/>
-      <c r="AE55" s="101"/>
-      <c r="AF55" s="101"/>
-      <c r="AG55" s="101"/>
-      <c r="AH55" s="101"/>
-      <c r="AI55" s="101"/>
-      <c r="AJ55" s="101"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="101"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
-      <c r="AO55" s="101"/>
-      <c r="AP55" s="101"/>
-      <c r="AQ55" s="101"/>
-      <c r="AR55" s="101"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="61"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
+      <c r="AL55" s="61"/>
+      <c r="AM55" s="61"/>
+      <c r="AN55" s="61"/>
+      <c r="AO55" s="61"/>
+      <c r="AP55" s="61"/>
+      <c r="AQ55" s="61"/>
+      <c r="AR55" s="61"/>
     </row>
     <row r="56" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A56" s="83">
+      <c r="A56" s="43">
         <v>34</v>
       </c>
-      <c r="B56" s="84" t="str">
+      <c r="B56" s="44" t="str">
         <f>+'[2]420017893 BK'!B35</f>
         <v>163200048</v>
       </c>
-      <c r="C56" s="85" t="str">
+      <c r="C56" s="45" t="str">
         <f>+'[2]420017893 BK'!K35</f>
         <v>163200048#&amp;Trục truyền động kim loại, rãnh bóng dùng trong sản xuất Mô-tơ, mới 100%.</v>
       </c>
-      <c r="D56" s="86" t="str">
+      <c r="D56" s="46" t="str">
         <f>+'[2]420017893 BK'!J35</f>
         <v>848310</v>
       </c>
-      <c r="E56" s="87" t="str">
+      <c r="E56" s="47" t="str">
         <f>+'[2]420017893 BK'!O35</f>
         <v>PIECES</v>
       </c>
-      <c r="F56" s="88">
+      <c r="F56" s="48">
         <f>+'[2]420017893 BK'!C35</f>
         <v>0.47572796934865902</v>
       </c>
-      <c r="G56" s="89">
+      <c r="G56" s="49">
         <f t="shared" si="0"/>
         <v>384.86392720306515</v>
       </c>
-      <c r="H56" s="90">
+      <c r="H56" s="50">
         <f>+'[2]420017893 BK'!P35</f>
         <v>0.75780899999999995</v>
       </c>
-      <c r="I56" s="91"/>
-      <c r="J56" s="92">
+      <c r="I56" s="51"/>
+      <c r="J56" s="52">
         <f t="shared" si="1"/>
         <v>291.65334780982755</v>
       </c>
-      <c r="K56" s="93" t="str">
+      <c r="K56" s="53" t="str">
         <f>+'[2]420017893 BK'!N35</f>
         <v>CHINA</v>
       </c>
-      <c r="L56" s="94" t="str">
+      <c r="L56" s="54" t="str">
         <f>+'[2]420017893 BK'!S35</f>
         <v>105971375530-105976970520</v>
       </c>
-      <c r="M56" s="95" t="str">
+      <c r="M56" s="55" t="str">
         <f>+'[2]420017893 BK'!T35</f>
         <v>20/12/2023-22/12/2023</v>
       </c>
-      <c r="N56" s="96"/>
-      <c r="O56" s="97"/>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="102"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="101"/>
-      <c r="W56" s="101"/>
-      <c r="X56" s="101"/>
-      <c r="Y56" s="101"/>
-      <c r="Z56" s="101"/>
-      <c r="AA56" s="101"/>
-      <c r="AB56" s="101"/>
-      <c r="AC56" s="101"/>
-      <c r="AD56" s="101"/>
-      <c r="AE56" s="101"/>
-      <c r="AF56" s="101"/>
-      <c r="AG56" s="101"/>
-      <c r="AH56" s="101"/>
-      <c r="AI56" s="101"/>
-      <c r="AJ56" s="101"/>
-      <c r="AK56" s="101"/>
-      <c r="AL56" s="101"/>
-      <c r="AM56" s="101"/>
-      <c r="AN56" s="101"/>
-      <c r="AO56" s="101"/>
-      <c r="AP56" s="101"/>
-      <c r="AQ56" s="101"/>
-      <c r="AR56" s="101"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
+      <c r="AM56" s="61"/>
+      <c r="AN56" s="61"/>
+      <c r="AO56" s="61"/>
+      <c r="AP56" s="61"/>
+      <c r="AQ56" s="61"/>
+      <c r="AR56" s="61"/>
     </row>
     <row r="57" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A57" s="83">
+      <c r="A57" s="43">
         <v>35</v>
       </c>
-      <c r="B57" s="84" t="str">
+      <c r="B57" s="44" t="str">
         <f>+'[2]420017893 BK'!B36</f>
         <v>163200049</v>
       </c>
-      <c r="C57" s="85" t="str">
+      <c r="C57" s="45" t="str">
         <f>+'[2]420017893 BK'!K36</f>
         <v>163200049#&amp;Trục truyền động kim loại, rãnh bóng dùng trong sản xuất Mô-tơ, Phi 6*101, mới 100%</v>
       </c>
-      <c r="D57" s="86" t="str">
+      <c r="D57" s="46" t="str">
         <f>+'[2]420017893 BK'!J36</f>
         <v>848310</v>
       </c>
-      <c r="E57" s="87" t="str">
+      <c r="E57" s="47" t="str">
         <f>+'[2]420017893 BK'!O36</f>
         <v>PIECES</v>
       </c>
-      <c r="F57" s="88">
+      <c r="F57" s="48">
         <f>+'[2]420017893 BK'!C36</f>
         <v>0.52427203065134098</v>
       </c>
-      <c r="G57" s="89">
+      <c r="G57" s="49">
         <f t="shared" si="0"/>
         <v>424.13607279693485</v>
       </c>
-      <c r="H57" s="90">
+      <c r="H57" s="50">
         <f>+'[2]420017893 BK'!P36</f>
         <v>0.75780287999999996</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="92">
+      <c r="I57" s="51"/>
+      <c r="J57" s="52">
         <f t="shared" si="1"/>
         <v>321.41153747740685</v>
       </c>
-      <c r="K57" s="93" t="str">
+      <c r="K57" s="53" t="str">
         <f>+'[2]420017893 BK'!N36</f>
         <v>CHINA</v>
       </c>
-      <c r="L57" s="94">
+      <c r="L57" s="54">
         <f>+'[2]420017893 BK'!S36</f>
         <v>105998574360</v>
       </c>
-      <c r="M57" s="95">
+      <c r="M57" s="55">
         <f>+'[2]420017893 BK'!T36</f>
         <v>45294</v>
       </c>
-      <c r="N57" s="96"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="100"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="102"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="101"/>
-      <c r="AC57" s="101"/>
-      <c r="AD57" s="101"/>
-      <c r="AE57" s="101"/>
-      <c r="AF57" s="101"/>
-      <c r="AG57" s="101"/>
-      <c r="AH57" s="101"/>
-      <c r="AI57" s="101"/>
-      <c r="AJ57" s="101"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="101"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
-      <c r="AO57" s="101"/>
-      <c r="AP57" s="101"/>
-      <c r="AQ57" s="101"/>
-      <c r="AR57" s="101"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="61"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="61"/>
+      <c r="Y57" s="61"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="61"/>
+      <c r="AC57" s="61"/>
+      <c r="AD57" s="61"/>
+      <c r="AE57" s="61"/>
+      <c r="AF57" s="61"/>
+      <c r="AG57" s="61"/>
+      <c r="AH57" s="61"/>
+      <c r="AI57" s="61"/>
+      <c r="AJ57" s="61"/>
+      <c r="AK57" s="61"/>
+      <c r="AL57" s="61"/>
+      <c r="AM57" s="61"/>
+      <c r="AN57" s="61"/>
+      <c r="AO57" s="61"/>
+      <c r="AP57" s="61"/>
+      <c r="AQ57" s="61"/>
+      <c r="AR57" s="61"/>
     </row>
     <row r="58" spans="1:44" ht="100.05" customHeight="1">
-      <c r="A58" s="83">
+      <c r="A58" s="43">
         <v>36</v>
       </c>
-      <c r="B58" s="84" t="str">
+      <c r="B58" s="44" t="str">
         <f>+'[2]420017893 BK'!B37</f>
         <v>163600032</v>
       </c>
-      <c r="C58" s="85" t="str">
+      <c r="C58" s="45" t="str">
         <f>+'[2]420017893 BK'!K37</f>
         <v>163600032#&amp;Bộ Phận của động cơ điện-Nắp trước của động cơ điện, Phi 52.5*17*20, mới 100%</v>
       </c>
-      <c r="D58" s="86" t="str">
+      <c r="D58" s="46" t="str">
         <f>+'[2]420017893 BK'!J37</f>
         <v>850300</v>
       </c>
-      <c r="E58" s="87" t="str">
+      <c r="E58" s="47" t="str">
         <f>+'[2]420017893 BK'!O37</f>
         <v>PIECES</v>
       </c>
-      <c r="F58" s="88">
+      <c r="F58" s="48">
         <f>+'[2]420017893 BK'!C37</f>
         <v>1</v>
       </c>
-      <c r="G58" s="89">
+      <c r="G58" s="49">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="H58" s="90">
+      <c r="H58" s="50">
         <f>+'[2]420017893 BK'!P37</f>
         <v>0.12337104</v>
       </c>
-      <c r="I58" s="91"/>
-      <c r="J58" s="92">
+      <c r="I58" s="51"/>
+      <c r="J58" s="52">
         <f t="shared" si="1"/>
         <v>99.807171359999998</v>
       </c>
-      <c r="K58" s="93" t="str">
+      <c r="K58" s="53" t="str">
         <f>+'[2]420017893 BK'!N37</f>
         <v>CHINA</v>
       </c>
-      <c r="L58" s="94">
+      <c r="L58" s="54">
         <f>+'[2]420017893 BK'!S37</f>
         <v>105998577530</v>
       </c>
-      <c r="M58" s="95">
+      <c r="M58" s="55">
         <f>+'[2]420017893 BK'!T37</f>
         <v>45294</v>
       </c>
-      <c r="N58" s="96"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="102"/>
-      <c r="U58" s="101"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
-      <c r="X58" s="101"/>
-      <c r="Y58" s="101"/>
-      <c r="Z58" s="101"/>
-      <c r="AA58" s="101"/>
-      <c r="AB58" s="101"/>
-      <c r="AC58" s="101"/>
-      <c r="AD58" s="101"/>
-      <c r="AE58" s="101"/>
-      <c r="AF58" s="101"/>
-      <c r="AG58" s="101"/>
-      <c r="AH58" s="101"/>
-      <c r="AI58" s="101"/>
-      <c r="AJ58" s="101"/>
-      <c r="AK58" s="101"/>
-      <c r="AL58" s="101"/>
-      <c r="AM58" s="101"/>
-      <c r="AN58" s="101"/>
-      <c r="AO58" s="101"/>
-      <c r="AP58" s="101"/>
-      <c r="AQ58" s="101"/>
-      <c r="AR58" s="101"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="61"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="61"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="61"/>
+      <c r="AA58" s="61"/>
+      <c r="AB58" s="61"/>
+      <c r="AC58" s="61"/>
+      <c r="AD58" s="61"/>
+      <c r="AE58" s="61"/>
+      <c r="AF58" s="61"/>
+      <c r="AG58" s="61"/>
+      <c r="AH58" s="61"/>
+      <c r="AI58" s="61"/>
+      <c r="AJ58" s="61"/>
+      <c r="AK58" s="61"/>
+      <c r="AL58" s="61"/>
+      <c r="AM58" s="61"/>
+      <c r="AN58" s="61"/>
+      <c r="AO58" s="61"/>
+      <c r="AP58" s="61"/>
+      <c r="AQ58" s="61"/>
+      <c r="AR58" s="61"/>
     </row>
     <row r="59" spans="1:44" ht="31.2">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="127">
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="86">
         <f>SUM(J23:J58)</f>
         <v>3048.3025587308034</v>
       </c>
-      <c r="K59" s="128"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="128"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="128"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
     </row>
     <row r="60" spans="1:44" ht="15.6">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="130"/>
-      <c r="O60" s="130"/>
-      <c r="P60" s="131"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="90"/>
     </row>
     <row r="61" spans="1:44" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="133" t="s">
+      <c r="B61" s="128"/>
+      <c r="C61" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="133"/>
-      <c r="E61" s="134" t="s">
+      <c r="D61" s="129"/>
+      <c r="E61" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="135" t="s">
+      <c r="F61" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="G61" s="136">
+      <c r="G61" s="91">
         <f>J59</f>
         <v>3048.3025587308034</v>
       </c>
-      <c r="H61" s="134" t="s">
+      <c r="H61" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="I61" s="137" t="s">
+      <c r="I61" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="J61" s="134">
+      <c r="J61" s="114">
         <f>+(G61/G62)*100</f>
         <v>48.245689240772478</v>
       </c>
-      <c r="K61" s="134" t="s">
+      <c r="K61" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="L61" s="134"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="130"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
     </row>
     <row r="62" spans="1:44" ht="15.6" customHeight="1">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="138" t="s">
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="138"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="139">
+      <c r="D62" s="115"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="92">
         <f>M15</f>
         <v>6318.29</v>
       </c>
-      <c r="H62" s="134"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="130"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
     </row>
     <row r="63" spans="1:44" ht="15.6">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="139"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="139"/>
-      <c r="K63" s="139"/>
-      <c r="L63" s="139"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="130"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
     </row>
     <row r="64" spans="1:44" ht="44.55" customHeight="1">
-      <c r="A64" s="141" t="s">
+      <c r="A64" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="142"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="141"/>
-      <c r="K64" s="141"/>
-      <c r="L64" s="141"/>
-      <c r="M64" s="141"/>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
     </row>
     <row r="65" spans="1:16" ht="19.95" customHeight="1">
-      <c r="A65" s="144" t="s">
+      <c r="A65" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="145"/>
-      <c r="J65" s="145"/>
-      <c r="M65" s="145"/>
-      <c r="N65" s="145"/>
-      <c r="O65" s="145"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
     </row>
     <row r="66" spans="1:16" ht="15.6">
-      <c r="A66" s="10"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="145" t="str">
+      <c r="A66" s="3"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="95" t="str">
         <f>+'[1]PL X EUR1'!E14</f>
         <v>Đồng Nai, ngày 26 tháng 07 năm 2024</v>
       </c>
-      <c r="L66" s="145"/>
-      <c r="M66" s="146"/>
-      <c r="N66" s="146"/>
-      <c r="O66" s="146"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
     </row>
     <row r="67" spans="1:16" ht="15.6">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="146" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="L67" s="146"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="130"/>
-      <c r="O67" s="130"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
     </row>
     <row r="68" spans="1:16" ht="15.6">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="130" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="L68" s="130"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="148"/>
-      <c r="O68" s="148"/>
-      <c r="P68" s="4"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="98"/>
+      <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16" ht="15.6">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="147"/>
-      <c r="N69" s="148"/>
-      <c r="O69" s="148"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="149"/>
-      <c r="B70" s="150"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="153"/>
-      <c r="O70" s="153"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="157"/>
-      <c r="B71" s="158"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="159"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="111"/>
+      <c r="M71" s="111"/>
+      <c r="N71" s="111"/>
+      <c r="O71" s="111"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="152"/>
-      <c r="B72" s="152"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="153"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="153"/>
-      <c r="H72" s="153"/>
-      <c r="I72" s="153"/>
-      <c r="J72" s="153"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="161"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="107"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="152"/>
-      <c r="B73" s="162"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="164"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
-      <c r="I73" s="163"/>
-      <c r="J73" s="163"/>
-      <c r="K73" s="160"/>
-      <c r="L73" s="160"/>
-      <c r="M73" s="161"/>
-      <c r="N73" s="160"/>
-      <c r="O73" s="160"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="107"/>
+      <c r="O73" s="107"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="152"/>
-      <c r="B74" s="152"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="153"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="153"/>
-      <c r="H74" s="153"/>
-      <c r="I74" s="153"/>
-      <c r="J74" s="153"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="160"/>
-      <c r="M74" s="161"/>
-      <c r="N74" s="160"/>
-      <c r="O74" s="160"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="103"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="107"/>
+      <c r="O74" s="107"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="149"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="153"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="153"/>
-      <c r="H75" s="153"/>
-      <c r="I75" s="153"/>
-      <c r="J75" s="153"/>
-      <c r="K75" s="155"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="156"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="153"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="103"/>
+      <c r="O75" s="103"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="157"/>
-      <c r="B76" s="158"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="159"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="111"/>
+      <c r="L76" s="111"/>
+      <c r="M76" s="111"/>
+      <c r="N76" s="111"/>
+      <c r="O76" s="111"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="157"/>
-      <c r="B77" s="158"/>
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="157"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
+      <c r="A77" s="111"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A64:O64"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="B73:J73"/>
+  <mergeCells count="48">
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="Q17:Q22"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="O8:O16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G17:J18"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:M19"/>
+    <mergeCell ref="N17:O19"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
@@ -6740,34 +6846,20 @@
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="H61:H62"/>
     <mergeCell ref="I61:I62"/>
-    <mergeCell ref="G17:J18"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:M19"/>
-    <mergeCell ref="N17:O19"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="O8:O16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="B73:J73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6776,11 +6868,81 @@
     <oddHeader>&amp;CPage &amp;P of &amp;N</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="14" man="1"/>
+    <brk id="40" max="16" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="15" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0105800-CEF2-45A6-9575-36AABFEAA457}">
+  <dimension ref="B3:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="D6" s="167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="167" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="167" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/guide.xlsx
+++ b/guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Code\00_Python\01_Hana Thuy\hanaVer1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\00_Python\10_Hana\hanaVer1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2354AEE-90C0-412C-8230-76EE49F031D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1786F-E8C6-4079-946C-7ED961D56671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411EBE91-F677-4A92-B82F-36A6D50DB17E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{411EBE91-F677-4A92-B82F-36A6D50DB17E}"/>
   </bookViews>
   <sheets>
     <sheet name="BK  TINH TY LE PHAN TRAM EUR1" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,19 @@
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??.0000_);_(@_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -965,494 +972,497 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="13" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="43" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="15" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="15" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="12" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="14" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2925,101 +2935,101 @@
   </sheetPr>
   <dimension ref="A1:AR77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.77734375" style="109" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="109" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="110"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="23.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="11.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.399999999999999">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:20" ht="18.75">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.8">
-      <c r="A2" s="158" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5">
+      <c r="A2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.2">
-      <c r="A3" s="160" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75">
+      <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
       <c r="O3" s="3"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="33" customHeight="1">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3036,7 +3046,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="67.05" customHeight="1">
+    <row r="5" spans="1:20" ht="67.150000000000006" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
@@ -3050,15 +3060,15 @@
       <c r="K5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="166" t="s">
+      <c r="L5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="18">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="A6" s="7"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
@@ -3080,7 +3090,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="15.6">
+    <row r="7" spans="1:20" ht="15.75">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -3110,19 +3120,19 @@
       <c r="P7" s="20"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:20" ht="16.2">
-      <c r="A8" s="146" t="s">
+    <row r="8" spans="1:20" ht="15.75">
+      <c r="A8" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="148">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129">
         <f>+'[1]PL X EUR1'!C8</f>
         <v>306274042930</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="151">
+      <c r="E8" s="132">
         <f>+'[1]PL X EUR1'!H8</f>
         <v>45367</v>
       </c>
@@ -3139,18 +3149,18 @@
       <c r="N8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="153" t="s">
+      <c r="O8" s="134" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="1:20" ht="19.95" customHeight="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="152"/>
+    <row r="9" spans="1:20" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="22"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3164,10 +3174,10 @@
       <c r="N9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="154"/>
+      <c r="O9" s="135"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.2">
+    <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="3"/>
       <c r="B10" s="26"/>
       <c r="C10" s="3"/>
@@ -3186,11 +3196,11 @@
       <c r="N10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="154"/>
+      <c r="O10" s="135"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:20" ht="16.2">
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="3"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3"/>
@@ -3209,13 +3219,13 @@
       <c r="N11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="154"/>
+      <c r="O11" s="135"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="28"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="16.2">
+    <row r="12" spans="1:20" ht="15.75">
       <c r="A12" s="3"/>
       <c r="B12" s="26"/>
       <c r="C12" s="3"/>
@@ -3234,11 +3244,11 @@
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="154"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:20" ht="16.2">
+    <row r="13" spans="1:20" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="26"/>
       <c r="C13" s="3"/>
@@ -3257,12 +3267,12 @@
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="154"/>
+      <c r="O13" s="135"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="28"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="16.2">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="26"/>
       <c r="C14" s="3"/>
@@ -3284,11 +3294,11 @@
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="154"/>
+      <c r="O14" s="135"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="28"/>
     </row>
-    <row r="15" spans="1:20" ht="16.2">
+    <row r="15" spans="1:20" ht="15.75">
       <c r="A15" s="3"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3"/>
@@ -3310,15 +3320,15 @@
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="154"/>
+      <c r="O15" s="135"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="28"/>
     </row>
-    <row r="16" spans="1:20" ht="16.2">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="26"/>
       <c r="F16" s="22"/>
       <c r="G16" s="3"/>
@@ -3335,148 +3345,148 @@
       <c r="N16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="154"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="126" t="s">
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="122" t="s">
+      <c r="L17" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="122" t="s">
+      <c r="M17" s="144"/>
+      <c r="N17" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="P17" s="169" t="s">
+      <c r="O17" s="144"/>
+      <c r="P17" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="Q17" s="171" t="s">
+      <c r="Q17" s="115" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="168"/>
-    </row>
-    <row r="19" spans="1:44" ht="15.6">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="126" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="116"/>
+    </row>
+    <row r="19" spans="1:44" ht="15.75">
+      <c r="A19" s="142"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="139" t="s">
+      <c r="I19" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="140"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="168"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="116"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="126" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="122" t="s">
+      <c r="J20" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="122" t="s">
+      <c r="K20" s="150"/>
+      <c r="L20" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="124" t="s">
+      <c r="M20" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="126" t="s">
+      <c r="N20" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="126" t="s">
+      <c r="O20" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="168"/>
-    </row>
-    <row r="21" spans="1:44" ht="31.95" customHeight="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="168"/>
-    </row>
-    <row r="22" spans="1:44" ht="15.6">
+      <c r="P20" s="114"/>
+      <c r="Q20" s="116"/>
+    </row>
+    <row r="21" spans="1:44" ht="31.9" customHeight="1">
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="116"/>
+    </row>
+    <row r="22" spans="1:44" ht="15.75">
       <c r="A22" s="38">
         <v>1</v>
       </c>
@@ -3522,10 +3532,10 @@
       <c r="O22" s="42">
         <v>15</v>
       </c>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="168"/>
-    </row>
-    <row r="23" spans="1:44" ht="100.05" customHeight="1">
+      <c r="P22" s="114"/>
+      <c r="Q22" s="116"/>
+    </row>
+    <row r="23" spans="1:44" ht="100.15" customHeight="1">
       <c r="A23" s="43">
         <v>1</v>
       </c>
@@ -3609,7 +3619,7 @@
       <c r="AQ23" s="61"/>
       <c r="AR23" s="61"/>
     </row>
-    <row r="24" spans="1:44" ht="100.05" customHeight="1">
+    <row r="24" spans="1:44" ht="100.15" customHeight="1">
       <c r="A24" s="43">
         <v>2</v>
       </c>
@@ -3690,7 +3700,7 @@
       <c r="AQ24" s="61"/>
       <c r="AR24" s="61"/>
     </row>
-    <row r="25" spans="1:44" ht="100.05" customHeight="1">
+    <row r="25" spans="1:44" ht="100.15" customHeight="1">
       <c r="A25" s="43">
         <v>3</v>
       </c>
@@ -3771,7 +3781,7 @@
       <c r="AQ25" s="61"/>
       <c r="AR25" s="61"/>
     </row>
-    <row r="26" spans="1:44" ht="100.05" customHeight="1">
+    <row r="26" spans="1:44" ht="100.15" customHeight="1">
       <c r="A26" s="43">
         <v>4</v>
       </c>
@@ -3852,7 +3862,7 @@
       <c r="AQ26" s="61"/>
       <c r="AR26" s="61"/>
     </row>
-    <row r="27" spans="1:44" ht="100.05" customHeight="1">
+    <row r="27" spans="1:44" ht="100.15" customHeight="1">
       <c r="A27" s="43">
         <v>5</v>
       </c>
@@ -3933,7 +3943,7 @@
       <c r="AQ27" s="61"/>
       <c r="AR27" s="61"/>
     </row>
-    <row r="28" spans="1:44" ht="100.05" customHeight="1">
+    <row r="28" spans="1:44" ht="100.15" customHeight="1">
       <c r="A28" s="43">
         <v>6</v>
       </c>
@@ -4014,7 +4024,7 @@
       <c r="AQ28" s="61"/>
       <c r="AR28" s="61"/>
     </row>
-    <row r="29" spans="1:44" ht="100.05" customHeight="1">
+    <row r="29" spans="1:44" ht="100.15" customHeight="1">
       <c r="A29" s="43">
         <v>7</v>
       </c>
@@ -4095,7 +4105,7 @@
       <c r="AQ29" s="61"/>
       <c r="AR29" s="61"/>
     </row>
-    <row r="30" spans="1:44" ht="100.05" customHeight="1">
+    <row r="30" spans="1:44" ht="100.15" customHeight="1">
       <c r="A30" s="43">
         <v>8</v>
       </c>
@@ -4177,7 +4187,7 @@
       <c r="AQ30" s="61"/>
       <c r="AR30" s="61"/>
     </row>
-    <row r="31" spans="1:44" ht="100.05" customHeight="1">
+    <row r="31" spans="1:44" ht="100.15" customHeight="1">
       <c r="A31" s="43">
         <v>9</v>
       </c>
@@ -4258,7 +4268,7 @@
       <c r="AQ31" s="61"/>
       <c r="AR31" s="61"/>
     </row>
-    <row r="32" spans="1:44" ht="100.05" customHeight="1">
+    <row r="32" spans="1:44" ht="100.15" customHeight="1">
       <c r="A32" s="43">
         <v>10</v>
       </c>
@@ -4341,7 +4351,7 @@
       <c r="AQ32" s="61"/>
       <c r="AR32" s="61"/>
     </row>
-    <row r="33" spans="1:44" ht="100.05" customHeight="1">
+    <row r="33" spans="1:44" ht="100.15" customHeight="1">
       <c r="A33" s="43">
         <v>11</v>
       </c>
@@ -4422,7 +4432,7 @@
       <c r="AQ33" s="61"/>
       <c r="AR33" s="61"/>
     </row>
-    <row r="34" spans="1:44" ht="100.05" customHeight="1">
+    <row r="34" spans="1:44" ht="100.15" customHeight="1">
       <c r="A34" s="43">
         <v>12</v>
       </c>
@@ -4503,7 +4513,7 @@
       <c r="AQ34" s="61"/>
       <c r="AR34" s="61"/>
     </row>
-    <row r="35" spans="1:44" ht="100.05" customHeight="1">
+    <row r="35" spans="1:44" ht="100.15" customHeight="1">
       <c r="A35" s="43">
         <v>13</v>
       </c>
@@ -4584,7 +4594,7 @@
       <c r="AQ35" s="61"/>
       <c r="AR35" s="61"/>
     </row>
-    <row r="36" spans="1:44" ht="100.05" customHeight="1">
+    <row r="36" spans="1:44" ht="100.15" customHeight="1">
       <c r="A36" s="43">
         <v>14</v>
       </c>
@@ -4665,7 +4675,7 @@
       <c r="AQ36" s="61"/>
       <c r="AR36" s="61"/>
     </row>
-    <row r="37" spans="1:44" ht="100.05" customHeight="1">
+    <row r="37" spans="1:44" ht="100.15" customHeight="1">
       <c r="A37" s="43">
         <v>15</v>
       </c>
@@ -4746,7 +4756,7 @@
       <c r="AQ37" s="61"/>
       <c r="AR37" s="61"/>
     </row>
-    <row r="38" spans="1:44" ht="100.05" customHeight="1">
+    <row r="38" spans="1:44" ht="100.15" customHeight="1">
       <c r="A38" s="43">
         <v>16</v>
       </c>
@@ -4827,7 +4837,7 @@
       <c r="AQ38" s="61"/>
       <c r="AR38" s="61"/>
     </row>
-    <row r="39" spans="1:44" ht="100.05" customHeight="1">
+    <row r="39" spans="1:44" ht="100.15" customHeight="1">
       <c r="A39" s="43">
         <v>17</v>
       </c>
@@ -4908,7 +4918,7 @@
       <c r="AQ39" s="61"/>
       <c r="AR39" s="61"/>
     </row>
-    <row r="40" spans="1:44" ht="100.05" customHeight="1">
+    <row r="40" spans="1:44" ht="100.15" customHeight="1">
       <c r="A40" s="43">
         <v>18</v>
       </c>
@@ -4989,7 +4999,7 @@
       <c r="AQ40" s="61"/>
       <c r="AR40" s="61"/>
     </row>
-    <row r="41" spans="1:44" ht="100.05" customHeight="1">
+    <row r="41" spans="1:44" ht="100.15" customHeight="1">
       <c r="A41" s="43">
         <v>19</v>
       </c>
@@ -5070,7 +5080,7 @@
       <c r="AQ41" s="61"/>
       <c r="AR41" s="61"/>
     </row>
-    <row r="42" spans="1:44" ht="100.05" customHeight="1">
+    <row r="42" spans="1:44" ht="100.15" customHeight="1">
       <c r="A42" s="43">
         <v>20</v>
       </c>
@@ -5151,7 +5161,7 @@
       <c r="AQ42" s="61"/>
       <c r="AR42" s="61"/>
     </row>
-    <row r="43" spans="1:44" ht="100.05" customHeight="1">
+    <row r="43" spans="1:44" ht="100.15" customHeight="1">
       <c r="A43" s="43">
         <v>21</v>
       </c>
@@ -5232,7 +5242,7 @@
       <c r="AQ43" s="61"/>
       <c r="AR43" s="61"/>
     </row>
-    <row r="44" spans="1:44" ht="100.05" customHeight="1">
+    <row r="44" spans="1:44" ht="100.15" customHeight="1">
       <c r="A44" s="43">
         <v>22</v>
       </c>
@@ -5313,7 +5323,7 @@
       <c r="AQ44" s="61"/>
       <c r="AR44" s="61"/>
     </row>
-    <row r="45" spans="1:44" ht="100.05" customHeight="1">
+    <row r="45" spans="1:44" ht="100.15" customHeight="1">
       <c r="A45" s="43">
         <v>23</v>
       </c>
@@ -5394,7 +5404,7 @@
       <c r="AQ45" s="61"/>
       <c r="AR45" s="61"/>
     </row>
-    <row r="46" spans="1:44" s="82" customFormat="1" ht="100.05" customHeight="1">
+    <row r="46" spans="1:44" s="82" customFormat="1" ht="100.15" customHeight="1">
       <c r="A46" s="43">
         <v>24</v>
       </c>
@@ -5474,7 +5484,7 @@
       <c r="AQ46" s="80"/>
       <c r="AR46" s="80"/>
     </row>
-    <row r="47" spans="1:44" ht="100.05" customHeight="1">
+    <row r="47" spans="1:44" ht="100.15" customHeight="1">
       <c r="A47" s="43">
         <v>25</v>
       </c>
@@ -5555,7 +5565,7 @@
       <c r="AQ47" s="61"/>
       <c r="AR47" s="61"/>
     </row>
-    <row r="48" spans="1:44" ht="100.05" customHeight="1">
+    <row r="48" spans="1:44" ht="100.15" customHeight="1">
       <c r="A48" s="43">
         <v>26</v>
       </c>
@@ -5636,7 +5646,7 @@
       <c r="AQ48" s="61"/>
       <c r="AR48" s="61"/>
     </row>
-    <row r="49" spans="1:44" ht="100.05" customHeight="1">
+    <row r="49" spans="1:44" ht="100.15" customHeight="1">
       <c r="A49" s="43">
         <v>27</v>
       </c>
@@ -5717,7 +5727,7 @@
       <c r="AQ49" s="61"/>
       <c r="AR49" s="61"/>
     </row>
-    <row r="50" spans="1:44" ht="100.05" customHeight="1">
+    <row r="50" spans="1:44" ht="100.15" customHeight="1">
       <c r="A50" s="43">
         <v>28</v>
       </c>
@@ -5798,7 +5808,7 @@
       <c r="AQ50" s="61"/>
       <c r="AR50" s="61"/>
     </row>
-    <row r="51" spans="1:44" ht="100.05" customHeight="1">
+    <row r="51" spans="1:44" ht="100.15" customHeight="1">
       <c r="A51" s="43">
         <v>29</v>
       </c>
@@ -5879,7 +5889,7 @@
       <c r="AQ51" s="61"/>
       <c r="AR51" s="61"/>
     </row>
-    <row r="52" spans="1:44" ht="100.05" customHeight="1">
+    <row r="52" spans="1:44" ht="100.15" customHeight="1">
       <c r="A52" s="43">
         <v>30</v>
       </c>
@@ -5960,7 +5970,7 @@
       <c r="AQ52" s="61"/>
       <c r="AR52" s="61"/>
     </row>
-    <row r="53" spans="1:44" ht="100.05" customHeight="1">
+    <row r="53" spans="1:44" ht="100.15" customHeight="1">
       <c r="A53" s="43">
         <v>31</v>
       </c>
@@ -6041,7 +6051,7 @@
       <c r="AQ53" s="61"/>
       <c r="AR53" s="61"/>
     </row>
-    <row r="54" spans="1:44" ht="100.05" customHeight="1">
+    <row r="54" spans="1:44" ht="100.15" customHeight="1">
       <c r="A54" s="43">
         <v>32</v>
       </c>
@@ -6122,7 +6132,7 @@
       <c r="AQ54" s="61"/>
       <c r="AR54" s="61"/>
     </row>
-    <row r="55" spans="1:44" ht="100.05" customHeight="1">
+    <row r="55" spans="1:44" ht="100.15" customHeight="1">
       <c r="A55" s="43">
         <v>33</v>
       </c>
@@ -6203,7 +6213,7 @@
       <c r="AQ55" s="61"/>
       <c r="AR55" s="61"/>
     </row>
-    <row r="56" spans="1:44" ht="100.05" customHeight="1">
+    <row r="56" spans="1:44" ht="100.15" customHeight="1">
       <c r="A56" s="43">
         <v>34</v>
       </c>
@@ -6284,7 +6294,7 @@
       <c r="AQ56" s="61"/>
       <c r="AR56" s="61"/>
     </row>
-    <row r="57" spans="1:44" ht="100.05" customHeight="1">
+    <row r="57" spans="1:44" ht="100.15" customHeight="1">
       <c r="A57" s="43">
         <v>35</v>
       </c>
@@ -6365,7 +6375,7 @@
       <c r="AQ57" s="61"/>
       <c r="AR57" s="61"/>
     </row>
-    <row r="58" spans="1:44" ht="100.05" customHeight="1">
+    <row r="58" spans="1:44" ht="100.15" customHeight="1">
       <c r="A58" s="43">
         <v>36</v>
       </c>
@@ -6446,7 +6456,7 @@
       <c r="AQ58" s="61"/>
       <c r="AR58" s="61"/>
     </row>
-    <row r="59" spans="1:44" ht="31.2">
+    <row r="59" spans="1:44" ht="31.5">
       <c r="A59" s="40" t="s">
         <v>46</v>
       </c>
@@ -6468,7 +6478,7 @@
       <c r="N59" s="87"/>
       <c r="O59" s="87"/>
     </row>
-    <row r="60" spans="1:44" ht="15.6">
+    <row r="60" spans="1:44" ht="15.75">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="3"/>
@@ -6487,65 +6497,65 @@
       <c r="P60" s="90"/>
     </row>
     <row r="61" spans="1:44" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="128"/>
-      <c r="C61" s="129" t="s">
+      <c r="B61" s="154"/>
+      <c r="C61" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="129"/>
-      <c r="E61" s="114" t="s">
+      <c r="D61" s="155"/>
+      <c r="E61" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="130" t="s">
+      <c r="F61" s="157" t="s">
         <v>50</v>
       </c>
       <c r="G61" s="91">
         <f>J59</f>
         <v>3048.3025587308034</v>
       </c>
-      <c r="H61" s="114" t="s">
+      <c r="H61" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="I61" s="131" t="s">
+      <c r="I61" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="J61" s="114">
+      <c r="J61" s="156">
         <f>+(G61/G62)*100</f>
         <v>48.245689240772478</v>
       </c>
-      <c r="K61" s="114" t="s">
+      <c r="K61" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="L61" s="114"/>
+      <c r="L61" s="156"/>
       <c r="M61" s="89"/>
       <c r="N61" s="89"/>
       <c r="O61" s="89"/>
     </row>
     <row r="62" spans="1:44" ht="15.6" customHeight="1">
-      <c r="A62" s="128"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="115" t="s">
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="115"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="130"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="157"/>
       <c r="G62" s="92">
         <f>M15</f>
         <v>6318.29</v>
       </c>
-      <c r="H62" s="114"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="156"/>
+      <c r="K62" s="156"/>
+      <c r="L62" s="156"/>
       <c r="M62" s="89"/>
       <c r="N62" s="89"/>
       <c r="O62" s="89"/>
     </row>
-    <row r="63" spans="1:44" ht="15.6">
+    <row r="63" spans="1:44" ht="15.75">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="3"/>
@@ -6562,26 +6572,26 @@
       <c r="N63" s="89"/>
       <c r="O63" s="89"/>
     </row>
-    <row r="64" spans="1:44" ht="44.55" customHeight="1">
-      <c r="A64" s="116" t="s">
+    <row r="64" spans="1:44" ht="44.65" customHeight="1">
+      <c r="A64" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="117"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-    </row>
-    <row r="65" spans="1:16" ht="19.95" customHeight="1">
+      <c r="B64" s="167"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="166"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="166"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="166"/>
+      <c r="L64" s="166"/>
+      <c r="M64" s="166"/>
+      <c r="N64" s="166"/>
+      <c r="O64" s="166"/>
+    </row>
+    <row r="65" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="94" t="s">
         <v>54</v>
       </c>
@@ -6598,7 +6608,7 @@
       <c r="N65" s="95"/>
       <c r="O65" s="95"/>
     </row>
-    <row r="66" spans="1:16" ht="15.6">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="3"/>
       <c r="B66" s="26"/>
       <c r="C66" s="3"/>
@@ -6618,7 +6628,7 @@
       <c r="N66" s="96"/>
       <c r="O66" s="96"/>
     </row>
-    <row r="67" spans="1:16" ht="15.6">
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="3"/>
@@ -6637,7 +6647,7 @@
       <c r="N67" s="89"/>
       <c r="O67" s="89"/>
     </row>
-    <row r="68" spans="1:16" ht="15.6">
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="3"/>
@@ -6657,7 +6667,7 @@
       <c r="O68" s="98"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="15.6">
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="3"/>
@@ -6674,7 +6684,7 @@
       <c r="N69" s="98"/>
       <c r="O69" s="98"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" ht="14.25">
       <c r="A70" s="99"/>
       <c r="B70" s="100"/>
       <c r="C70" s="101"/>
@@ -6692,23 +6702,23 @@
       <c r="O70" s="103"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="111"/>
-      <c r="N71" s="111"/>
-      <c r="O71" s="111"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="A71" s="162"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="162"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="162"/>
+      <c r="I71" s="162"/>
+      <c r="J71" s="162"/>
+      <c r="K71" s="162"/>
+      <c r="L71" s="162"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="162"/>
+      <c r="O71" s="162"/>
+    </row>
+    <row r="72" spans="1:16" ht="14.25">
       <c r="A72" s="102"/>
       <c r="B72" s="102"/>
       <c r="C72" s="103"/>
@@ -6725,24 +6735,24 @@
       <c r="N72" s="107"/>
       <c r="O72" s="107"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" ht="14.25">
       <c r="A73" s="102"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="120"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="170"/>
+      <c r="D73" s="170"/>
+      <c r="E73" s="170"/>
+      <c r="F73" s="171"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="170"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="107"/>
       <c r="L73" s="107"/>
       <c r="M73" s="108"/>
       <c r="N73" s="107"/>
       <c r="O73" s="107"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="14.25">
       <c r="A74" s="102"/>
       <c r="B74" s="102"/>
       <c r="C74" s="103"/>
@@ -6759,7 +6769,7 @@
       <c r="N74" s="107"/>
       <c r="O74" s="107"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" ht="14.25">
       <c r="A75" s="99"/>
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
@@ -6777,41 +6787,73 @@
       <c r="O75" s="103"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="111"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="111"/>
-      <c r="N76" s="111"/>
-      <c r="O76" s="111"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="162"/>
+      <c r="D76" s="162"/>
+      <c r="E76" s="162"/>
+      <c r="F76" s="164"/>
+      <c r="G76" s="162"/>
+      <c r="H76" s="162"/>
+      <c r="I76" s="162"/>
+      <c r="J76" s="162"/>
+      <c r="K76" s="162"/>
+      <c r="L76" s="162"/>
+      <c r="M76" s="162"/>
+      <c r="N76" s="162"/>
+      <c r="O76" s="162"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="111"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="162"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="162"/>
+      <c r="I77" s="162"/>
+      <c r="J77" s="162"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="162"/>
+      <c r="M77" s="162"/>
+      <c r="N77" s="162"/>
+      <c r="O77" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="A71:O71"/>
+    <mergeCell ref="B73:J73"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="L17:M19"/>
+    <mergeCell ref="N17:O19"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P17:P22"/>
     <mergeCell ref="Q17:Q22"/>
@@ -6828,38 +6870,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="G17:J18"/>
     <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:M19"/>
-    <mergeCell ref="N17:O19"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A64:O64"/>
-    <mergeCell ref="A71:O71"/>
-    <mergeCell ref="B73:J73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6879,67 +6889,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0105800-CEF2-45A6-9575-36AABFEAA457}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="167" t="s">
+    <row r="3" spans="2:14" ht="15">
+      <c r="B3" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="111" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="C5" s="167" t="s">
+    <row r="5" spans="2:14" ht="15">
+      <c r="C5" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="111" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="D6" s="167" t="s">
+    <row r="6" spans="2:14" ht="15">
+      <c r="D6" s="111" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="D7" s="167" t="s">
+    <row r="7" spans="2:14" ht="15">
+      <c r="D7" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:14">
       <c r="D8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:14">
       <c r="D9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:14">
       <c r="D10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="D11" s="167" t="s">
+    <row r="11" spans="2:14" ht="15">
+      <c r="D11" s="111" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="M15">
+        <f>0.7698</f>
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="N15">
+        <f>M15*1.02</f>
+        <v>0.78519600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="M16">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17">
+        <f>M15*M16</f>
+        <v>0.78519600000000001</v>
       </c>
     </row>
   </sheetData>
